--- a/alpha/Alpha.xlsx
+++ b/alpha/Alpha.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="122">
   <si>
     <t xml:space="preserve">Range</t>
   </si>
@@ -167,6 +167,78 @@
     <t xml:space="preserve">Chi^2/Ndf</t>
   </si>
   <si>
+    <t xml:space="preserve">small</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.215221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0223658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">425.964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.296723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.333891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2232.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.5977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">med</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0180008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">456.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9988.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">138.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.669495</t>
+  </si>
+  <si>
     <t xml:space="preserve">big</t>
   </si>
   <si>
@@ -203,76 +275,52 @@
     <t xml:space="preserve">0.953005</t>
   </si>
   <si>
-    <t xml:space="preserve">med</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0180008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">456.87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9988.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">138.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.669495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">small</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.215221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0223658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">425.964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.296723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.333891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2232.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.5977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10856</t>
+    <t xml:space="preserve">MultiDireita1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">497.884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.853364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">603.722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">162.158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MultiDireita2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">513.2621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.39939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.840398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">222.958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.401</t>
   </si>
   <si>
     <t xml:space="preserve">Ntot</t>
@@ -294,6 +342,9 @@
   </si>
   <si>
     <t xml:space="preserve">Resolução (\%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAO SE USA OS MULTI 1 E 2 NA RESOLUÇAO </t>
   </si>
   <si>
     <t xml:space="preserve">Pulso</t>
@@ -359,7 +410,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -382,7 +432,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -390,7 +439,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -486,7 +534,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -551,14 +599,14 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -577,6 +625,10 @@
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -742,13 +794,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.5668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.80566801619433"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.0485829959514"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.0890688259109"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.2834008097166"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.1821862348178"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.7611336032389"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.9028340080972"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.2834008097166"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -970,15 +1022,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0445344129555"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.9959514170041"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.0485829959514"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.1821862348178"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.5263157894737"/>
-    <col collapsed="false" hidden="false" max="10" min="7" style="0" width="10.1821862348178"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.9959514170041"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="10.1821862348178"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.3238866396761"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.9028340080972"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.2834008097166"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.1417004048583"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.8542510121458"/>
+    <col collapsed="false" hidden="false" max="10" min="7" style="0" width="11.1417004048583"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.3238866396761"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="11.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1197,7 +1249,7 @@
       </c>
       <c r="M11" s="0" t="n">
         <f aca="false">(L11/H11*I11+L11/C16*D16)</f>
-        <v>0.654756526313732</v>
+        <v>0.654756526313733</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1276,21 +1328,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.1821862348178"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.0890688259109"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.1821862348178"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.4251012145749"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.1821862348178"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.8947368421053"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="10.1821862348178"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.1417004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="11.1417004048583"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.6599190283401"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.1417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.6153846153846"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1331,7 +1383,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>47</v>
       </c>
@@ -1407,7 +1459,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>71</v>
       </c>
@@ -1445,25 +1497,102 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="C6" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
         <v>62414</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>85</v>
-      </c>
-    </row>
+      <c r="B8" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -1473,7 +1602,7 @@
         <v>39</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>41</v>
@@ -1485,53 +1614,53 @@
         <v>41</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>41</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="I11" s="14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B12" s="3" t="n">
         <f aca="false">D2*'Calibração - Semana 1'!J$11+'Calibração - Semana 1'!L$11</f>
-        <v>5545.85245394163</v>
+        <v>5446.27880944565</v>
       </c>
       <c r="C12" s="3" t="n">
         <f aca="false">SQRT(('Calibração - Semana 1'!K$11*D2)^2+(E2*'Calibração - Semana 1'!J$11)^2+'Calibração - Semana 1'!M$11^2)</f>
-        <v>0.698678725684751</v>
+        <v>0.851991386877505</v>
       </c>
       <c r="D12" s="3" t="n">
         <f aca="false">F2*2.355</f>
-        <v>8.99781915</v>
+        <v>16.24919385</v>
       </c>
       <c r="E12" s="3" t="n">
         <f aca="false">G2*2.355</f>
-        <v>0.118339692</v>
+        <v>0.786313305</v>
       </c>
       <c r="F12" s="3" t="n">
         <f aca="false">D12*'Calibração - Semana 1'!J$11</f>
-        <v>16.1845739600641</v>
+        <v>29.2277801178905</v>
       </c>
       <c r="G12" s="3" t="n">
         <f aca="false">SQRT((D12*'Calibração - Semana 1'!K$11)^2+('Calibração - Semana 1'!J$11*E12)^2)</f>
-        <v>0.212873106734413</v>
+        <v>1.41436526703756</v>
       </c>
       <c r="H12" s="3" t="n">
         <f aca="false">F12/B12*100</f>
-        <v>0.291832032937717</v>
+        <v>0.536655965302398</v>
       </c>
       <c r="I12" s="3" t="n">
         <f aca="false">SQRT((E12/B12)^2+(D12*C12/(B12)^2)^2)*100</f>
-        <v>0.002133939227858</v>
+        <v>0.0144377003315694</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1571,46 +1700,134 @@
         <v>0.00602184273179161</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="15" t="s">
         <v>71</v>
       </c>
       <c r="B14" s="3" t="n">
         <f aca="false">D4*'Calibração - Semana 1'!J$11+'Calibração - Semana 1'!L$11</f>
-        <v>5446.27880944565</v>
+        <v>5545.85245394163</v>
       </c>
       <c r="C14" s="3" t="n">
         <f aca="false">SQRT(('Calibração - Semana 1'!K$11*D4)^2+(E4*'Calibração - Semana 1'!J$11)^2+'Calibração - Semana 1'!M$11^2)</f>
-        <v>0.851991386877505</v>
+        <v>0.698678725684751</v>
       </c>
       <c r="D14" s="3" t="n">
         <f aca="false">F4*2.355</f>
-        <v>16.24919385</v>
+        <v>8.99781915</v>
       </c>
       <c r="E14" s="3" t="n">
         <f aca="false">G4*2.355</f>
-        <v>0.786313305</v>
+        <v>0.118339692</v>
       </c>
       <c r="F14" s="3" t="n">
         <f aca="false">D14*'Calibração - Semana 1'!J$11</f>
-        <v>29.2277801178905</v>
+        <v>16.1845739600641</v>
       </c>
       <c r="G14" s="3" t="n">
         <f aca="false">SQRT((D14*'Calibração - Semana 1'!K$11)^2+('Calibração - Semana 1'!J$11*E14)^2)</f>
-        <v>1.41436526703756</v>
+        <v>0.212873106734413</v>
       </c>
       <c r="H14" s="3" t="n">
         <f aca="false">F14/B14*100</f>
-        <v>0.536655965302398</v>
+        <v>0.291832032937717</v>
       </c>
       <c r="I14" s="3" t="n">
         <f aca="false">SQRT((E14/B14)^2+(D14*C14/(B14)^2)^2)*100</f>
-        <v>0.0144377003315694</v>
-      </c>
-    </row>
+        <v>0.002133939227858</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="3" t="n">
+        <f aca="false">D5*'Calibração - Semana 1'!J$11+'Calibração - Semana 1'!L$11</f>
+        <v>5575.64288531817</v>
+      </c>
+      <c r="C15" s="3" t="n">
+        <f aca="false">SQRT(('Calibração - Semana 1'!K$11*D5)^2+(E5*'Calibração - Semana 1'!J$11)^2+'Calibração - Semana 1'!M$11^2)</f>
+        <v>1.6738156426159</v>
+      </c>
+      <c r="D15" s="3" t="n">
+        <f aca="false">F5*2.355</f>
+        <v>15.57679425</v>
+      </c>
+      <c r="E15" s="3" t="n">
+        <f aca="false">G5*2.355</f>
+        <v>4.93940055</v>
+      </c>
+      <c r="F15" s="3" t="n">
+        <f aca="false">D15*'Calibração - Semana 1'!J$11</f>
+        <v>28.0183202615077</v>
+      </c>
+      <c r="G15" s="3" t="n">
+        <f aca="false">SQRT((D15*'Calibração - Semana 1'!K$11)^2+('Calibração - Semana 1'!J$11*E15)^2)</f>
+        <v>8.88460865151639</v>
+      </c>
+      <c r="H15" s="3" t="n">
+        <f aca="false">F15/B15*100</f>
+        <v>0.502512819378833</v>
+      </c>
+      <c r="I15" s="3" t="n">
+        <f aca="false">SQRT((E15/B15)^2+(D15*C15/(B15)^2)^2)*100</f>
+        <v>0.0885889370084028</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="3" t="n">
+        <f aca="false">D6*'Calibração - Semana 1'!J$11+'Calibração - Semana 1'!L$11</f>
+        <v>5603.30380988957</v>
+      </c>
+      <c r="C16" s="3" t="n">
+        <f aca="false">SQRT(('Calibração - Semana 1'!K$11*D6)^2+(E6*'Calibração - Semana 1'!J$11)^2+'Calibração - Semana 1'!M$11^2)</f>
+        <v>0.981165311732271</v>
+      </c>
+      <c r="D16" s="3" t="n">
+        <f aca="false">F6*2.355</f>
+        <v>9.8010861</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <f aca="false">G6*2.355</f>
+        <v>1.97913729</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <f aca="false">D16*'Calibração - Semana 1'!J$11</f>
+        <v>17.6294277791087</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <f aca="false">SQRT((D16*'Calibração - Semana 1'!K$11)^2+('Calibração - Semana 1'!J$11*E16)^2)</f>
+        <v>3.55991841563484</v>
+      </c>
+      <c r="H16" s="3" t="n">
+        <f aca="false">F16/B16*100</f>
+        <v>0.314625591922994</v>
+      </c>
+      <c r="I16" s="3" t="n">
+        <f aca="false">SQRT((E16/B16)^2+(D16*C16/(B16)^2)^2)*100</f>
+        <v>0.0353209124698743</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A10:C10"/>
+    <mergeCell ref="B18:D18"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1635,40 +1852,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.3765182186235"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.1821862348178"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.2307692307692"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.3238866396761"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.1821862348178"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.2307692307692"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.1821862348178"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5263157894737"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.1417004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.6599190283401"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.9473684210526"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.1417004048583"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.6599190283401"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16" t="n">
+      <c r="A2" s="17" t="n">
         <v>0.5</v>
       </c>
-      <c r="B2" s="17" t="n">
+      <c r="B2" s="16" t="n">
         <v>65</v>
       </c>
       <c r="C2" s="3" t="n">
@@ -1688,7 +1905,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="3" t="n">
         <v>66</v>
       </c>
@@ -1700,7 +1917,7 @@
       <c r="F3" s="18"/>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="3" t="n">
         <v>67</v>
       </c>
@@ -1712,7 +1929,7 @@
       <c r="F4" s="18"/>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="16"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="3" t="n">
         <v>68</v>
       </c>
@@ -1724,7 +1941,7 @@
       <c r="F5" s="18"/>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="16" t="n">
+      <c r="A6" s="17" t="n">
         <v>1.5</v>
       </c>
       <c r="B6" s="3" t="n">
@@ -1747,7 +1964,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="16"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="3" t="n">
         <v>198</v>
       </c>
@@ -1759,7 +1976,7 @@
       <c r="F7" s="18"/>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="16"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="3" t="n">
         <v>199</v>
       </c>
@@ -1771,7 +1988,7 @@
       <c r="F8" s="18"/>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="3" t="n">
         <v>200</v>
       </c>
@@ -1830,7 +2047,7 @@
       <c r="F12" s="21"/>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="16" t="n">
+      <c r="A13" s="17" t="n">
         <v>3.5</v>
       </c>
       <c r="B13" s="3" t="n">
@@ -1853,7 +2070,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="3" t="n">
         <v>464</v>
       </c>
@@ -1865,7 +2082,7 @@
       <c r="F14" s="18"/>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="16"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="3" t="n">
         <v>465</v>
       </c>
@@ -1877,7 +2094,7 @@
       <c r="F15" s="18"/>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="16"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="3" t="n">
         <v>466</v>
       </c>
@@ -1889,7 +2106,7 @@
       <c r="F16" s="18"/>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="16" t="n">
+      <c r="A17" s="17" t="n">
         <v>4.5</v>
       </c>
       <c r="B17" s="3" t="n">
@@ -1912,7 +2129,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="16"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="3" t="n">
         <v>599</v>
       </c>
@@ -1924,7 +2141,7 @@
       <c r="F18" s="18"/>
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="16"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="3" t="n">
         <v>600</v>
       </c>
@@ -1936,7 +2153,7 @@
       <c r="F19" s="18"/>
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="16" t="n">
+      <c r="A20" s="17" t="n">
         <v>5.5</v>
       </c>
       <c r="B20" s="3" t="n">
@@ -1959,7 +2176,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="16"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="3" t="n">
         <v>734</v>
       </c>
@@ -1971,7 +2188,7 @@
       <c r="F21" s="18"/>
     </row>
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="16"/>
+      <c r="A22" s="17"/>
       <c r="B22" s="3" t="n">
         <v>735</v>
       </c>
@@ -1983,7 +2200,7 @@
       <c r="F22" s="18"/>
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="16"/>
+      <c r="A23" s="17"/>
       <c r="B23" s="3" t="n">
         <v>736</v>
       </c>
@@ -1995,7 +2212,7 @@
       <c r="F23" s="18"/>
     </row>
     <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="16" t="n">
+      <c r="A24" s="17" t="n">
         <v>6.5</v>
       </c>
       <c r="B24" s="3" t="n">
@@ -2018,7 +2235,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="16"/>
+      <c r="A25" s="17"/>
       <c r="B25" s="3" t="n">
         <v>870</v>
       </c>
@@ -2030,7 +2247,7 @@
       <c r="F25" s="18"/>
     </row>
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="16"/>
+      <c r="A26" s="17"/>
       <c r="B26" s="3" t="n">
         <v>871</v>
       </c>
@@ -2042,7 +2259,7 @@
       <c r="F26" s="18"/>
     </row>
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="16"/>
+      <c r="A27" s="17"/>
       <c r="B27" s="3" t="n">
         <v>872</v>
       </c>
@@ -2235,50 +2452,50 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.5668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.1821862348178"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.6599190283401"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.1821862348178"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.6599190283401"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.1821862348178"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.6194331983806"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="10.1821862348178"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.2348178137652"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="10.1821862348178"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.1417004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.995951417004"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="11.1417004048583"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.995951417004"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.1417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.753036437247"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="11.1417004048583"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="11.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" s="17" t="s">
+      <c r="A1" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="I1" s="17" t="s">
+      <c r="G1" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="16" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2310,7 +2527,7 @@
       <c r="J2" s="0" t="n">
         <v>558.32</v>
       </c>
-      <c r="K2" s="23" t="n">
+      <c r="K2" s="24" t="n">
         <f aca="false">I2/(2.355*SQRT(G2))</f>
         <v>0.277387939497925</v>
       </c>
@@ -2343,7 +2560,7 @@
       <c r="J3" s="0" t="n">
         <v>503.78</v>
       </c>
-      <c r="K3" s="23" t="n">
+      <c r="K3" s="24" t="n">
         <f aca="false">I3/(2.355*SQRT(G3))</f>
         <v>0.269356601403233</v>
       </c>
@@ -2376,7 +2593,7 @@
       <c r="J4" s="0" t="n">
         <v>445.72</v>
       </c>
-      <c r="K4" s="23" t="n">
+      <c r="K4" s="24" t="n">
         <f aca="false">I4/(2.355*SQRT(G4))</f>
         <v>0.32664816203933</v>
       </c>
@@ -2409,7 +2626,7 @@
       <c r="J5" s="0" t="n">
         <v>382.09</v>
       </c>
-      <c r="K5" s="23" t="n">
+      <c r="K5" s="24" t="n">
         <f aca="false">I5/(2.355*SQRT(G5))</f>
         <v>0.283986731975534</v>
       </c>
@@ -2436,7 +2653,7 @@
       <c r="J6" s="0" t="n">
         <v>310.23</v>
       </c>
-      <c r="K6" s="23" t="e">
+      <c r="K6" s="24" t="e">
         <f aca="false">I6/(2.355*SQRT(G6))</f>
         <v>#DIV/0!</v>
       </c>
@@ -2469,7 +2686,7 @@
       <c r="J7" s="0" t="n">
         <v>224.46</v>
       </c>
-      <c r="K7" s="23" t="n">
+      <c r="K7" s="24" t="n">
         <f aca="false">I7/(2.355*SQRT(G7))</f>
         <v>0.307092725770636</v>
       </c>
@@ -2502,400 +2719,400 @@
       <c r="J8" s="0" t="n">
         <v>115.44</v>
       </c>
-      <c r="K8" s="23" t="n">
+      <c r="K8" s="24" t="n">
         <f aca="false">I8/(2.355*SQRT(G8))</f>
         <v>0.57303210667144</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
+      <c r="A10" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="B11" s="26" t="s">
+      <c r="A11" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="E11" s="28" t="s">
+      <c r="C11" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="29" t="s">
-        <v>104</v>
+      <c r="F11" s="30" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="26" t="n">
+      <c r="A12" s="27" t="n">
         <v>0.132</v>
       </c>
-      <c r="B12" s="26" t="n">
+      <c r="B12" s="27" t="n">
         <v>0.123</v>
       </c>
-      <c r="C12" s="27" t="n">
+      <c r="C12" s="28" t="n">
         <v>0.1248</v>
       </c>
-      <c r="D12" s="28" t="n">
+      <c r="D12" s="29" t="n">
         <v>0.53</v>
       </c>
-      <c r="E12" s="28" t="n">
+      <c r="E12" s="29" t="n">
         <v>0.564</v>
       </c>
-      <c r="F12" s="28" t="n">
+      <c r="F12" s="29" t="n">
         <v>0.5572</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="26" t="n">
+      <c r="A13" s="27" t="n">
         <v>0.181</v>
       </c>
-      <c r="B13" s="26" t="n">
+      <c r="B13" s="27" t="n">
         <v>0.17</v>
       </c>
-      <c r="C13" s="27" t="n">
+      <c r="C13" s="28" t="n">
         <v>0.1722</v>
       </c>
-      <c r="D13" s="28" t="n">
+      <c r="D13" s="29" t="n">
         <v>0.644</v>
       </c>
-      <c r="E13" s="28" t="n">
+      <c r="E13" s="29" t="n">
         <v>0.684</v>
       </c>
-      <c r="F13" s="28" t="n">
+      <c r="F13" s="29" t="n">
         <v>0.676</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="26" t="n">
+      <c r="A14" s="27" t="n">
         <v>0.247</v>
       </c>
-      <c r="B14" s="26" t="n">
+      <c r="B14" s="27" t="n">
         <v>0.232</v>
       </c>
-      <c r="C14" s="27" t="n">
+      <c r="C14" s="28" t="n">
         <v>0.235</v>
       </c>
-      <c r="D14" s="28" t="n">
+      <c r="D14" s="29" t="n">
         <v>0.777</v>
       </c>
-      <c r="E14" s="28" t="n">
+      <c r="E14" s="29" t="n">
         <v>0.817</v>
       </c>
-      <c r="F14" s="28" t="n">
+      <c r="F14" s="29" t="n">
         <v>0.809</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="26" t="n">
+      <c r="A15" s="27" t="n">
         <v>0.33</v>
       </c>
-      <c r="B15" s="26" t="n">
+      <c r="B15" s="27" t="n">
         <v>0.312</v>
       </c>
-      <c r="C15" s="27" t="n">
+      <c r="C15" s="28" t="n">
         <v>0.3156</v>
       </c>
-      <c r="D15" s="28" t="n">
+      <c r="D15" s="29" t="n">
         <v>0.93</v>
       </c>
-      <c r="E15" s="28" t="n">
+      <c r="E15" s="29" t="n">
         <v>0.956</v>
       </c>
-      <c r="F15" s="28" t="n">
+      <c r="F15" s="29" t="n">
         <v>0.9508</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="26" t="n">
+      <c r="A16" s="27" t="n">
         <v>0.513</v>
       </c>
-      <c r="B16" s="26" t="n">
+      <c r="B16" s="27" t="n">
         <v>0.49</v>
       </c>
-      <c r="C16" s="27" t="n">
+      <c r="C16" s="28" t="n">
         <v>0.4946</v>
       </c>
-      <c r="D16" s="28" t="n">
+      <c r="D16" s="29" t="n">
         <v>1.262</v>
       </c>
-      <c r="E16" s="28" t="n">
+      <c r="E16" s="29" t="n">
         <v>1.303</v>
       </c>
-      <c r="F16" s="28" t="n">
+      <c r="F16" s="29" t="n">
         <v>1.2948</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="26" t="n">
+      <c r="A17" s="27" t="n">
         <v>0.588</v>
       </c>
-      <c r="B17" s="26" t="n">
+      <c r="B17" s="27" t="n">
         <v>0.563</v>
       </c>
-      <c r="C17" s="27" t="n">
+      <c r="C17" s="28" t="n">
         <v>0.568</v>
       </c>
-      <c r="D17" s="28" t="n">
+      <c r="D17" s="29" t="n">
         <v>1.389</v>
       </c>
-      <c r="E17" s="28" t="n">
+      <c r="E17" s="29" t="n">
         <v>1.442</v>
       </c>
-      <c r="F17" s="28" t="n">
+      <c r="F17" s="29" t="n">
         <v>1.4314</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="26" t="n">
+      <c r="A18" s="27" t="n">
         <v>0.684</v>
       </c>
-      <c r="B18" s="26" t="n">
+      <c r="B18" s="27" t="n">
         <v>0.654</v>
       </c>
-      <c r="C18" s="27" t="n">
+      <c r="C18" s="28" t="n">
         <v>0.66</v>
       </c>
-      <c r="D18" s="28" t="n">
+      <c r="D18" s="29" t="n">
         <v>1.546</v>
       </c>
-      <c r="E18" s="28" t="n">
+      <c r="E18" s="29" t="n">
         <v>1.604</v>
       </c>
-      <c r="F18" s="28" t="n">
+      <c r="F18" s="29" t="n">
         <v>1.5924</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="26" t="n">
+      <c r="A19" s="27" t="n">
         <v>0.783</v>
       </c>
-      <c r="B19" s="26" t="n">
+      <c r="B19" s="27" t="n">
         <v>0.75</v>
       </c>
-      <c r="C19" s="27" t="n">
+      <c r="C19" s="28" t="n">
         <v>0.7566</v>
       </c>
-      <c r="D19" s="28" t="n">
+      <c r="D19" s="29" t="n">
         <v>1.665</v>
       </c>
-      <c r="E19" s="28" t="n">
+      <c r="E19" s="29" t="n">
         <v>1.734</v>
       </c>
-      <c r="F19" s="28" t="n">
+      <c r="F19" s="29" t="n">
         <v>1.7202</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="26" t="n">
+      <c r="A20" s="27" t="n">
         <v>0.9</v>
       </c>
-      <c r="B20" s="26" t="n">
+      <c r="B20" s="27" t="n">
         <v>0.863</v>
       </c>
-      <c r="C20" s="27" t="n">
+      <c r="C20" s="28" t="n">
         <v>0.8704</v>
       </c>
-      <c r="D20" s="28" t="n">
+      <c r="D20" s="29" t="n">
         <v>1.748</v>
       </c>
-      <c r="E20" s="28" t="n">
+      <c r="E20" s="29" t="n">
         <v>1.816</v>
       </c>
-      <c r="F20" s="28" t="n">
+      <c r="F20" s="29" t="n">
         <v>1.8024</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="26" t="n">
+      <c r="A21" s="27" t="n">
         <v>1.246</v>
       </c>
-      <c r="B21" s="26" t="n">
+      <c r="B21" s="27" t="n">
         <v>1.193</v>
       </c>
-      <c r="C21" s="27" t="n">
+      <c r="C21" s="28" t="n">
         <v>1.2036</v>
       </c>
-      <c r="D21" s="28" t="n">
+      <c r="D21" s="29" t="n">
         <v>1.688</v>
       </c>
-      <c r="E21" s="28" t="n">
+      <c r="E21" s="29" t="n">
         <v>1.776</v>
       </c>
-      <c r="F21" s="28" t="n">
+      <c r="F21" s="29" t="n">
         <v>1.7584</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="26" t="n">
+      <c r="A22" s="27" t="n">
         <v>1.493</v>
       </c>
-      <c r="B22" s="26" t="n">
+      <c r="B22" s="27" t="n">
         <v>1.428</v>
       </c>
-      <c r="C22" s="27" t="n">
+      <c r="C22" s="28" t="n">
         <v>1.441</v>
       </c>
-      <c r="D22" s="28" t="n">
+      <c r="D22" s="29" t="n">
         <v>1.561</v>
       </c>
-      <c r="E22" s="28" t="n">
+      <c r="E22" s="29" t="n">
         <v>1.64</v>
       </c>
-      <c r="F22" s="28" t="n">
+      <c r="F22" s="29" t="n">
         <v>1.6242</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="26" t="n">
+      <c r="A23" s="27" t="n">
         <v>1.765</v>
       </c>
-      <c r="B23" s="26" t="n">
+      <c r="B23" s="27" t="n">
         <v>1.687</v>
       </c>
-      <c r="C23" s="27" t="n">
+      <c r="C23" s="28" t="n">
         <v>1.7026</v>
       </c>
-      <c r="D23" s="28" t="n">
+      <c r="D23" s="29" t="n">
         <v>1.385</v>
       </c>
-      <c r="E23" s="28" t="n">
+      <c r="E23" s="29" t="n">
         <v>1.458</v>
       </c>
-      <c r="F23" s="28" t="n">
+      <c r="F23" s="29" t="n">
         <v>1.4434</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="26" t="n">
+      <c r="A24" s="27" t="n">
         <v>2.073</v>
       </c>
-      <c r="B24" s="26" t="n">
+      <c r="B24" s="27" t="n">
         <v>1.979</v>
       </c>
-      <c r="C24" s="27" t="n">
+      <c r="C24" s="28" t="n">
         <v>1.9978</v>
       </c>
-      <c r="D24" s="28" t="n">
+      <c r="D24" s="29" t="n">
         <v>1.227</v>
       </c>
-      <c r="E24" s="28" t="n">
+      <c r="E24" s="29" t="n">
         <v>1.292</v>
       </c>
-      <c r="F24" s="28" t="n">
+      <c r="F24" s="29" t="n">
         <v>1.279</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="26" t="n">
+      <c r="A25" s="27" t="n">
         <v>2.418</v>
       </c>
-      <c r="B25" s="26" t="n">
+      <c r="B25" s="27" t="n">
         <v>2.308</v>
       </c>
-      <c r="C25" s="27" t="n">
+      <c r="C25" s="28" t="n">
         <v>2.33</v>
       </c>
-      <c r="D25" s="28" t="n">
+      <c r="D25" s="29" t="n">
         <v>1.098</v>
       </c>
-      <c r="E25" s="28" t="n">
+      <c r="E25" s="29" t="n">
         <v>1.152</v>
       </c>
-      <c r="F25" s="28" t="n">
+      <c r="F25" s="29" t="n">
         <v>1.1412</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="26" t="n">
+      <c r="A26" s="27" t="n">
         <v>3.227</v>
       </c>
-      <c r="B26" s="26" t="n">
+      <c r="B26" s="27" t="n">
         <v>3.079</v>
       </c>
-      <c r="C26" s="27" t="n">
+      <c r="C26" s="28" t="n">
         <v>3.1086</v>
       </c>
-      <c r="D26" s="28" t="n">
+      <c r="D26" s="29" t="n">
         <v>0.9</v>
       </c>
-      <c r="E26" s="28" t="n">
+      <c r="E26" s="29" t="n">
         <v>0.949</v>
       </c>
-      <c r="F26" s="28" t="n">
+      <c r="F26" s="29" t="n">
         <v>0.9392</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="26" t="n">
+      <c r="A27" s="27" t="n">
         <v>4.444</v>
       </c>
-      <c r="B27" s="26" t="n">
+      <c r="B27" s="27" t="n">
         <v>4.236</v>
       </c>
-      <c r="C27" s="27" t="n">
+      <c r="C27" s="28" t="n">
         <v>4.2776</v>
       </c>
-      <c r="D27" s="28" t="n">
+      <c r="D27" s="29" t="n">
         <v>0.756</v>
       </c>
-      <c r="E27" s="28" t="n">
+      <c r="E27" s="29" t="n">
         <v>0.792</v>
       </c>
-      <c r="F27" s="28" t="n">
+      <c r="F27" s="29" t="n">
         <v>0.7848</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="26" t="n">
+      <c r="A28" s="27" t="n">
         <v>6.487</v>
       </c>
-      <c r="B28" s="26" t="n">
+      <c r="B28" s="27" t="n">
         <v>6.189</v>
       </c>
-      <c r="C28" s="27" t="n">
+      <c r="C28" s="28" t="n">
         <v>6.2486</v>
       </c>
-      <c r="D28" s="28" t="n">
+      <c r="D28" s="29" t="n">
         <v>0.626</v>
       </c>
-      <c r="E28" s="28" t="n">
+      <c r="E28" s="29" t="n">
         <v>0.655</v>
       </c>
-      <c r="F28" s="28" t="n">
+      <c r="F28" s="29" t="n">
         <v>0.6492</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="26" t="n">
+      <c r="A29" s="27" t="n">
         <v>9.277</v>
       </c>
-      <c r="B29" s="26" t="n">
+      <c r="B29" s="27" t="n">
         <v>8.851</v>
       </c>
-      <c r="C29" s="27" t="n">
+      <c r="C29" s="28" t="n">
         <v>8.9362</v>
       </c>
-      <c r="D29" s="28" t="n">
+      <c r="D29" s="29" t="n">
         <v>0.53</v>
       </c>
-      <c r="E29" s="28" t="n">
+      <c r="E29" s="29" t="n">
         <v>0.556</v>
       </c>
-      <c r="F29" s="28" t="n">
+      <c r="F29" s="29" t="n">
         <v>0.5508</v>
       </c>
     </row>

--- a/alpha/Alpha.xlsx
+++ b/alpha/Alpha.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="124">
   <si>
     <t xml:space="preserve">Range</t>
   </si>
@@ -345,6 +345,12 @@
   </si>
   <si>
     <t xml:space="preserve">NAO SE USA OS MULTI 1 E 2 NA RESOLUÇAO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Média</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deltaE</t>
   </si>
   <si>
     <t xml:space="preserve">Pulso</t>
@@ -410,6 +416,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -432,6 +439,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -439,6 +447,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -599,11 +608,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -794,13 +803,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.7611336032389"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.9028340080972"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.2834008097166"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.4251012145749"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.0485829959514"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.7125506072874"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.4251012145749"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.6194331983806"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.8542510121458"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.6599190283401"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="12.1821862348178"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1022,15 +1031,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.5668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.3238866396761"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.9028340080972"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.2834008097166"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.8542510121458"/>
-    <col collapsed="false" hidden="false" max="10" min="7" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.3238866396761"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="11.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.7611336032389"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.4251012145749"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.6194331983806"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.1821862348178"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.1902834008097"/>
+    <col collapsed="false" hidden="false" max="10" min="7" style="0" width="12.1821862348178"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.7611336032389"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="12.1821862348178"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1328,21 +1337,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.6599190283401"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.6153846153846"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.1417004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="12.1821862348178"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.8542510121458"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="12.1821862348178"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.995951417004"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.1821862348178"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.5182186234818"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="12.1821862348178"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1812,18 +1821,42 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <f aca="false">SUM(B12:B14)/3</f>
+        <v>5498.00045683658</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <f aca="false">B12-A$21</f>
+        <v>-51.7216473909293</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="n">
+        <f aca="false">B13-A$21</f>
+        <v>3.8696502858802</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="n">
+        <f aca="false">B14-A$21</f>
+        <v>47.8519971050509</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A10:C10"/>
@@ -1852,40 +1885,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5263157894737"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.6599190283401"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.9473684210526"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.6599190283401"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8542510121458"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.1821862348178"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.1902834008097"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.668016194332"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.1821862348178"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.1902834008097"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="12.1821862348178"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17" t="n">
+      <c r="A2" s="16" t="n">
         <v>0.5</v>
       </c>
-      <c r="B2" s="16" t="n">
+      <c r="B2" s="17" t="n">
         <v>65</v>
       </c>
       <c r="C2" s="3" t="n">
@@ -1905,7 +1938,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="17"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="3" t="n">
         <v>66</v>
       </c>
@@ -1917,7 +1950,7 @@
       <c r="F3" s="18"/>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="17"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="3" t="n">
         <v>67</v>
       </c>
@@ -1929,7 +1962,7 @@
       <c r="F4" s="18"/>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="17"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="3" t="n">
         <v>68</v>
       </c>
@@ -1941,7 +1974,7 @@
       <c r="F5" s="18"/>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="17" t="n">
+      <c r="A6" s="16" t="n">
         <v>1.5</v>
       </c>
       <c r="B6" s="3" t="n">
@@ -1964,7 +1997,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="3" t="n">
         <v>198</v>
       </c>
@@ -1976,7 +2009,7 @@
       <c r="F7" s="18"/>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="3" t="n">
         <v>199</v>
       </c>
@@ -1988,7 +2021,7 @@
       <c r="F8" s="18"/>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="17"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="3" t="n">
         <v>200</v>
       </c>
@@ -2047,7 +2080,7 @@
       <c r="F12" s="21"/>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="17" t="n">
+      <c r="A13" s="16" t="n">
         <v>3.5</v>
       </c>
       <c r="B13" s="3" t="n">
@@ -2070,7 +2103,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="17"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="3" t="n">
         <v>464</v>
       </c>
@@ -2082,7 +2115,7 @@
       <c r="F14" s="18"/>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="17"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="3" t="n">
         <v>465</v>
       </c>
@@ -2094,7 +2127,7 @@
       <c r="F15" s="18"/>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="17"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="3" t="n">
         <v>466</v>
       </c>
@@ -2106,7 +2139,7 @@
       <c r="F16" s="18"/>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="17" t="n">
+      <c r="A17" s="16" t="n">
         <v>4.5</v>
       </c>
       <c r="B17" s="3" t="n">
@@ -2129,7 +2162,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="17"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="3" t="n">
         <v>599</v>
       </c>
@@ -2141,7 +2174,7 @@
       <c r="F18" s="18"/>
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="17"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="3" t="n">
         <v>600</v>
       </c>
@@ -2153,7 +2186,7 @@
       <c r="F19" s="18"/>
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="17" t="n">
+      <c r="A20" s="16" t="n">
         <v>5.5</v>
       </c>
       <c r="B20" s="3" t="n">
@@ -2176,7 +2209,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="17"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="3" t="n">
         <v>734</v>
       </c>
@@ -2188,7 +2221,7 @@
       <c r="F21" s="18"/>
     </row>
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="17"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="3" t="n">
         <v>735</v>
       </c>
@@ -2200,7 +2233,7 @@
       <c r="F22" s="18"/>
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="17"/>
+      <c r="A23" s="16"/>
       <c r="B23" s="3" t="n">
         <v>736</v>
       </c>
@@ -2212,7 +2245,7 @@
       <c r="F23" s="18"/>
     </row>
     <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="17" t="n">
+      <c r="A24" s="16" t="n">
         <v>6.5</v>
       </c>
       <c r="B24" s="3" t="n">
@@ -2235,7 +2268,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="17"/>
+      <c r="A25" s="16"/>
       <c r="B25" s="3" t="n">
         <v>870</v>
       </c>
@@ -2247,7 +2280,7 @@
       <c r="F25" s="18"/>
     </row>
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="17"/>
+      <c r="A26" s="16"/>
       <c r="B26" s="3" t="n">
         <v>871</v>
       </c>
@@ -2259,7 +2292,7 @@
       <c r="F26" s="18"/>
     </row>
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="17"/>
+      <c r="A27" s="16"/>
       <c r="B27" s="3" t="n">
         <v>872</v>
       </c>
@@ -2452,50 +2485,50 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.995951417004"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.995951417004"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.753036437247"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.2834008097166"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="11.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.0485829959514"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.1821862348178"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.5182186234818"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="12.1821862348178"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.5182186234818"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.1821862348178"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.9028340080972"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="12.1821862348178"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="12.1821862348178"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>113</v>
+      <c r="A1" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>115</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="E1" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="I1" s="16" t="s">
+      <c r="G1" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="17" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2726,34 +2759,34 @@
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="25" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
       <c r="D10" s="26" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E10" s="26"/>
       <c r="F10" s="26"/>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="27" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B11" s="27" t="s">
         <v>45</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>45</v>
       </c>
       <c r="F11" s="30" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/alpha/Alpha.xlsx
+++ b/alpha/Alpha.xlsx
@@ -5,14 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Determinação da Energy Range" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Calibração - Semana 1" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Estudo da Fonte Desconhecida" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Calibração - Semana 2" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Estudo de DEdx" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="dEdx" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="99">
   <si>
     <t xml:space="preserve">Range</t>
   </si>
@@ -170,175 +170,37 @@
     <t xml:space="preserve">small</t>
   </si>
   <si>
-    <t xml:space="preserve">0.215221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0223658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">425.964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.296723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.333891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2232.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.5977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10856</t>
-  </si>
-  <si>
     <t xml:space="preserve">med</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0180008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">456.87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9988.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">138.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.669495</t>
-  </si>
-  <si>
     <t xml:space="preserve">big</t>
   </si>
   <si>
-    <t xml:space="preserve">0.269085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0276246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">481.322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0502504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.322673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50364.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">235.943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.953005</t>
-  </si>
-  <si>
     <t xml:space="preserve">MultiDireita1</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>
   </si>
   <si>
-    <t xml:space="preserve">497.884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.853364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">603.722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">162.158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14247</t>
-  </si>
-  <si>
     <t xml:space="preserve">MultiDireita2</t>
   </si>
   <si>
-    <t xml:space="preserve">513.2621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.39939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.840398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">222.958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.401</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ntot</t>
   </si>
   <si>
     <t xml:space="preserve">Nfit</t>
   </si>
   <si>
-    <t xml:space="preserve">62585.6</t>
-  </si>
-  <si>
     <t xml:space="preserve">Resolução</t>
   </si>
   <si>
-    <t xml:space="preserve">E (keV)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FWHM (keV)</t>
+    <t xml:space="preserve">Pico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E (MeV)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FWHM (MeV)</t>
   </si>
   <si>
     <t xml:space="preserve">Resolução (\%)</t>
@@ -350,7 +212,25 @@
     <t xml:space="preserve">Média</t>
   </si>
   <si>
-    <t xml:space="preserve">deltaE</t>
+    <t xml:space="preserve">deltaE (MeV)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Err</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Probabilidade </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delta E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sigma</t>
   </si>
   <si>
     <t xml:space="preserve">Pulso</t>
@@ -386,6 +266,30 @@
     <t xml:space="preserve">Erro N_s</t>
   </si>
   <si>
+    <t xml:space="preserve">Erro E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E0 (Mev)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajuste final (E=a*C+b)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parametro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">erro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ρ ar (mg/cm^3) (20ºC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energia(MeV)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alcance</t>
   </si>
   <si>
@@ -396,6 +300,27 @@
   </si>
   <si>
     <t xml:space="preserve">0.2 O + 0.8 N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energia (keV)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delta E medido (Mev)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delta E (Alcance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delta E (médio)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delta E (por troços)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NÃO TÊM ERRO</t>
   </si>
 </sst>
 </file>
@@ -410,7 +335,7 @@
     <numFmt numFmtId="168" formatCode="#,##0.000"/>
     <numFmt numFmtId="169" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -449,8 +374,15 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -460,7 +392,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FFEBF1DE"/>
       </patternFill>
     </fill>
     <fill>
@@ -469,8 +401,14 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBF1DE"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="17">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -507,14 +445,91 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="medium"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right/>
+      <top/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="medium"/>
+      <top/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="medium"/>
+      <top/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right/>
       <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -538,12 +553,8 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="46">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -636,47 +647,106 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -698,7 +768,7 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFEBF1DE"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -771,25 +841,6 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela5" displayName="Tabela5" ref="A1:K8" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:K8"/>
-  <tableColumns count="11">
-    <tableColumn id="1" name="Prateleira"/>
-    <tableColumn id="2" name="d(mm)"/>
-    <tableColumn id="3" name="1/eficiencia"/>
-    <tableColumn id="4" name="t_aq (s)"/>
-    <tableColumn id="5" name="N_t"/>
-    <tableColumn id="6" name="Erro N_t"/>
-    <tableColumn id="7" name="N_s"/>
-    <tableColumn id="8" name="Erro N_s"/>
-    <tableColumn id="9" name="FWHM"/>
-    <tableColumn id="10" name="C"/>
-    <tableColumn id="11" name="Erro C"/>
-  </tableColumns>
-</table>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -797,22 +848,22 @@
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.0485829959514"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.7125506072874"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.4251012145749"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.6194331983806"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.8542510121458"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.6599190283401"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="12.1821862348178"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4251012145749"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.0485829959514"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.1902834008097"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.8016194331984"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.9473684210526"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="15.6194331983806"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -838,7 +889,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -865,7 +916,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -892,7 +943,7 @@
         <v>3.33</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -915,7 +966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -942,7 +993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -969,7 +1020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -994,12 +1045,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
@@ -1025,24 +1076,24 @@
   </sheetPr>
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M11" activeCellId="0" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.7611336032389"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.4251012145749"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.6194331983806"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.1821862348178"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.1902834008097"/>
-    <col collapsed="false" hidden="false" max="10" min="7" style="0" width="12.1821862348178"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.7611336032389"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="12.1821862348178"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.8016194331984"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.1902834008097"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.6194331983806"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.8542510121457"/>
+    <col collapsed="false" hidden="false" max="10" min="7" style="0" width="15.6194331983806"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="21.8016194331984"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="15.6194331983806"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1062,7 +1113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -1083,7 +1134,7 @@
         <v>0.0568737426917524</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -1104,7 +1155,7 @@
         <v>0.070917998881514</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -1125,7 +1176,7 @@
         <v>0.0594459220094698</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -1146,7 +1197,7 @@
         <v>0.0553018553309251</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -1167,7 +1218,7 @@
         <v>0.0630183932840774</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -1188,7 +1239,7 @@
         <v>0.0535870691191134</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="7"/>
       <c r="H9" s="8" t="s">
         <v>23</v>
@@ -1197,7 +1248,7 @@
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
     </row>
-    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
         <v>24</v>
       </c>
@@ -1223,7 +1274,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -1237,36 +1288,36 @@
         <v>33</v>
       </c>
       <c r="H11" s="3" t="n">
-        <f aca="false">D12/(A16*B12+C16)*1000</f>
-        <v>1038.10944591765</v>
+        <f aca="false">D12/(A16*B12+C16)</f>
+        <v>1.02869211570664</v>
       </c>
       <c r="I11" s="3" t="n">
         <f aca="false">SQRT(POWER(B12*H11*B16/(A16*B12+C16),2)+POWER(H11*D16/(A16*B12+C16),2)+POWER(A16*H11*C12/(A16*B12+C16),2))</f>
-        <v>0.126812835635835</v>
+        <v>0.000124579213922169</v>
       </c>
       <c r="J11" s="3" t="n">
         <f aca="false">H11*A16</f>
-        <v>1.79872185584705</v>
+        <v>0.00178240454196374</v>
       </c>
       <c r="K11" s="0" t="n">
         <f aca="false">SQRT((J11/H11*I11)^2+(J11/A16*B16)^2)</f>
-        <v>0.000260615921465943</v>
+        <v>2.56671275865819E-007</v>
       </c>
       <c r="L11" s="3" t="n">
         <f aca="false">H11*C16</f>
-        <v>4680.08805284162</v>
+        <v>4.63763209139794</v>
       </c>
       <c r="M11" s="0" t="n">
         <f aca="false">(L11/H11*I11+L11/C16*D16)</f>
-        <v>0.654756526313733</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.000643933347797567</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="n">
         <v>7.69</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>347.42</v>
+        <v>374.42</v>
       </c>
       <c r="C12" s="10" t="n">
         <v>0.356283561765346</v>
@@ -1277,7 +1328,7 @@
       <c r="H12" s="7"/>
       <c r="M12" s="7"/>
     </row>
-    <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
         <v>34</v>
       </c>
@@ -1285,7 +1336,7 @@
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
         <v>35</v>
       </c>
@@ -1299,7 +1350,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="n">
         <v>0.00173269</v>
       </c>
@@ -1337,24 +1388,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="12.1821862348178"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.8542510121458"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="12.1821862348178"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.995951417004"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.1821862348178"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.5182186234818"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="12.1821862348178"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.5141700404858"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6194331983806"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.0890688259109"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.8016194331984"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="10.9554655870445"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="15.6194331983806"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.2834008097166"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="27.8016194331984"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="15.6194331983806"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>39</v>
       </c>
@@ -1396,471 +1450,1001 @@
       <c r="A2" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="0" t="n">
+        <v>0.259806</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0.103365</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>426.069</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0.425788</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>6.61776</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>0.452714</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>18.8101</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>5.24891</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>2279.39</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>347.929</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>0.811833</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>70</v>
+      <c r="B3" s="0" t="n">
+        <v>0.147226</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0.0180008</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>456.87</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0.127022</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>4.7933</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0.140684</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>11.1889</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>0.7007</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>9988.6</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>138.1</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>0.669495</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>82</v>
+        <v>49</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.269085</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.0276246</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>481.322</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0.116233</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>3.82073</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0.0502504</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>6.71323</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>0.322673</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>50364.5</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>235.943</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>0.953005</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>88</v>
+        <v>51</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>497.884</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0.853364</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>6.61435</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>2.09741</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>91</v>
+        <v>51</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>603.722</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>162.158</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>1.14247</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>96</v>
+        <v>51</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>513.2621</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0.39939</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>4.16182</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0.840398</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>51</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>222.958</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>80.401</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>1.14247</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>62414</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">1992+10140+50474+207</f>
+        <v>62813</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <f aca="false">J2+J3+J4+J5+J6</f>
+        <v>63459.17</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
-    </row>
-    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="13" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14" t="s">
         <v>3</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>105</v>
       </c>
       <c r="I11" s="14" t="s">
         <v>41</v>
       </c>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15" t="s">
-        <v>47</v>
+      <c r="A12" s="15" t="n">
+        <v>1</v>
       </c>
       <c r="B12" s="3" t="n">
         <f aca="false">D2*'Calibração - Semana 1'!J$11+'Calibração - Semana 1'!L$11</f>
-        <v>5446.27880944565</v>
-      </c>
-      <c r="C12" s="3" t="n">
+        <v>5.39705941218789</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="n">
         <f aca="false">SQRT(('Calibração - Semana 1'!K$11*D2)^2+(E2*'Calibração - Semana 1'!J$11)^2+'Calibração - Semana 1'!M$11^2)</f>
-        <v>0.851991386877505</v>
-      </c>
-      <c r="D12" s="3" t="n">
+        <v>0.00100128870667625</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="n">
         <f aca="false">F2*2.355</f>
-        <v>16.24919385</v>
-      </c>
-      <c r="E12" s="3" t="n">
+        <v>15.5848248</v>
+      </c>
+      <c r="I12" s="3" t="n">
         <f aca="false">G2*2.355</f>
-        <v>0.786313305</v>
-      </c>
-      <c r="F12" s="3" t="n">
-        <f aca="false">D12*'Calibração - Semana 1'!J$11</f>
-        <v>29.2277801178905</v>
-      </c>
-      <c r="G12" s="3" t="n">
-        <f aca="false">SQRT((D12*'Calibração - Semana 1'!K$11)^2+('Calibração - Semana 1'!J$11*E12)^2)</f>
-        <v>1.41436526703756</v>
-      </c>
-      <c r="H12" s="3" t="n">
-        <f aca="false">F12/B12*100</f>
-        <v>0.536655965302398</v>
-      </c>
-      <c r="I12" s="3" t="n">
-        <f aca="false">SQRT((E12/B12)^2+(D12*C12/(B12)^2)^2)*100</f>
-        <v>0.0144377003315694</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15" t="s">
-        <v>59</v>
+        <v>1.06614147</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3" t="n">
+        <f aca="false">H12*'Calibração - Semana 1'!J$11</f>
+        <v>0.0277784625092291</v>
+      </c>
+      <c r="L12" s="3" t="n">
+        <f aca="false">SQRT((H12*'Calibração - Semana 1'!K$11)^2+('Calibração - Semana 1'!J$11*I12)^2)</f>
+        <v>0.00190029960874333</v>
+      </c>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3" t="n">
+        <f aca="false">K12/B12*100</f>
+        <v>0.514696251934869</v>
+      </c>
+      <c r="O12" s="3" t="n">
+        <f aca="false">SQRT((L12/B12)^2+(K12*D12/(B12)^2)^2)*100</f>
+        <v>0.0352100366486862</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="15" t="n">
+        <v>2</v>
       </c>
       <c r="B13" s="3" t="n">
         <f aca="false">D3*'Calibração - Semana 1'!J$11+'Calibração - Semana 1'!L$11</f>
-        <v>5501.87010712246</v>
-      </c>
-      <c r="C13" s="3" t="n">
+        <v>5.45195925448491</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="n">
         <f aca="false">SQRT(('Calibração - Semana 1'!K$11*D3)^2+(E3*'Calibração - Semana 1'!J$11)^2+'Calibração - Semana 1'!M$11^2)</f>
-        <v>0.703622806506386</v>
-      </c>
-      <c r="D13" s="3" t="n">
+        <v>0.000692575172854797</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3" t="n">
         <f aca="false">F3*2.355</f>
         <v>11.2882215</v>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="I13" s="3" t="n">
         <f aca="false">G3*2.355</f>
         <v>0.33131082</v>
       </c>
-      <c r="F13" s="3" t="n">
-        <f aca="false">D13*'Calibração - Semana 1'!J$11</f>
-        <v>20.3043707256926</v>
-      </c>
-      <c r="G13" s="3" t="n">
-        <f aca="false">SQRT((D13*'Calibração - Semana 1'!K$11)^2+('Calibração - Semana 1'!J$11*E13)^2)</f>
-        <v>0.59594327441762</v>
-      </c>
-      <c r="H13" s="3" t="n">
-        <f aca="false">F13/B13*100</f>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3" t="n">
+        <f aca="false">H13*'Calibração - Semana 1'!J$11</f>
+        <v>0.0201201772722927</v>
+      </c>
+      <c r="L13" s="3" t="n">
+        <f aca="false">SQRT((H13*'Calibração - Semana 1'!K$11)^2+('Calibração - Semana 1'!J$11*I13)^2)</f>
+        <v>0.00059053701810224</v>
+      </c>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3" t="n">
+        <f aca="false">K13/B13*100</f>
         <v>0.369044894378868</v>
       </c>
-      <c r="I13" s="3" t="n">
-        <f aca="false">SQRT((E13/B13)^2+(D13*C13/(B13)^2)^2)*100</f>
-        <v>0.00602184273179161</v>
+      <c r="O13" s="3" t="n">
+        <f aca="false">SQRT((L13/B13)^2+(K13*D13/(B13)^2)^2)*100</f>
+        <v>0.0108317491319565</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15" t="s">
-        <v>71</v>
+      <c r="A14" s="15" t="n">
+        <v>3</v>
       </c>
       <c r="B14" s="3" t="n">
         <f aca="false">D4*'Calibração - Semana 1'!J$11+'Calibração - Semana 1'!L$11</f>
-        <v>5545.85245394163</v>
-      </c>
-      <c r="C14" s="3" t="n">
+        <v>5.49554261034501</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="n">
         <f aca="false">SQRT(('Calibração - Semana 1'!K$11*D4)^2+(E4*'Calibração - Semana 1'!J$11)^2+'Calibração - Semana 1'!M$11^2)</f>
-        <v>0.698678725684751</v>
-      </c>
-      <c r="D14" s="3" t="n">
+        <v>0.000687629134694718</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3" t="n">
         <f aca="false">F4*2.355</f>
         <v>8.99781915</v>
       </c>
-      <c r="E14" s="3" t="n">
+      <c r="I14" s="3" t="n">
         <f aca="false">G4*2.355</f>
         <v>0.118339692</v>
       </c>
-      <c r="F14" s="3" t="n">
-        <f aca="false">D14*'Calibração - Semana 1'!J$11</f>
-        <v>16.1845739600641</v>
-      </c>
-      <c r="G14" s="3" t="n">
-        <f aca="false">SQRT((D14*'Calibração - Semana 1'!K$11)^2+('Calibração - Semana 1'!J$11*E14)^2)</f>
-        <v>0.212873106734413</v>
-      </c>
-      <c r="H14" s="3" t="n">
-        <f aca="false">F14/B14*100</f>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3" t="n">
+        <f aca="false">H14*'Calibração - Semana 1'!J$11</f>
+        <v>0.0160377537207283</v>
+      </c>
+      <c r="L14" s="3" t="n">
+        <f aca="false">SQRT((H14*'Calibração - Semana 1'!K$11)^2+('Calibração - Semana 1'!J$11*I14)^2)</f>
+        <v>0.000210941847491947</v>
+      </c>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3" t="n">
+        <f aca="false">K14/B14*100</f>
         <v>0.291832032937717</v>
       </c>
-      <c r="I14" s="3" t="n">
-        <f aca="false">SQRT((E14/B14)^2+(D14*C14/(B14)^2)^2)*100</f>
-        <v>0.002133939227858</v>
+      <c r="O14" s="3" t="n">
+        <f aca="false">SQRT((L14/B14)^2+(K14*D14/(B14)^2)^2)*100</f>
+        <v>0.00383859078821556</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="B15" s="3" t="n">
         <f aca="false">D5*'Calibração - Semana 1'!J$11+'Calibração - Semana 1'!L$11</f>
-        <v>5575.64288531817</v>
-      </c>
-      <c r="C15" s="3" t="n">
+        <v>5.52506279436901</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="n">
         <f aca="false">SQRT(('Calibração - Semana 1'!K$11*D5)^2+(E5*'Calibração - Semana 1'!J$11)^2+'Calibração - Semana 1'!M$11^2)</f>
-        <v>1.6738156426159</v>
-      </c>
-      <c r="D15" s="3" t="n">
+        <v>0.00165666634230195</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3" t="n">
         <f aca="false">F5*2.355</f>
         <v>15.57679425</v>
       </c>
-      <c r="E15" s="3" t="n">
+      <c r="I15" s="3" t="n">
         <f aca="false">G5*2.355</f>
         <v>4.93940055</v>
       </c>
-      <c r="F15" s="3" t="n">
-        <f aca="false">D15*'Calibração - Semana 1'!J$11</f>
-        <v>28.0183202615077</v>
-      </c>
-      <c r="G15" s="3" t="n">
-        <f aca="false">SQRT((D15*'Calibração - Semana 1'!K$11)^2+('Calibração - Semana 1'!J$11*E15)^2)</f>
-        <v>8.88460865151639</v>
-      </c>
-      <c r="H15" s="3" t="n">
-        <f aca="false">F15/B15*100</f>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3" t="n">
+        <f aca="false">H15*'Calibração - Semana 1'!J$11</f>
+        <v>0.0277641488204347</v>
+      </c>
+      <c r="L15" s="3" t="n">
+        <f aca="false">SQRT((H15*'Calibração - Semana 1'!K$11)^2+('Calibração - Semana 1'!J$11*I15)^2)</f>
+        <v>0.00880401088271906</v>
+      </c>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3" t="n">
+        <f aca="false">K15/B15*100</f>
         <v>0.502512819378833</v>
       </c>
-      <c r="I15" s="3" t="n">
-        <f aca="false">SQRT((E15/B15)^2+(D15*C15/(B15)^2)^2)*100</f>
-        <v>0.0885889370084028</v>
+      <c r="O15" s="3" t="n">
+        <f aca="false">SQRT((L15/B15)^2+(K15*D15/(B15)^2)^2)*100</f>
+        <v>0.159346873445122</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="B16" s="3" t="n">
         <f aca="false">D6*'Calibração - Semana 1'!J$11+'Calibração - Semana 1'!L$11</f>
-        <v>5603.30380988957</v>
-      </c>
-      <c r="C16" s="3" t="n">
+        <v>5.55247278965578</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3" t="n">
         <f aca="false">SQRT(('Calibração - Semana 1'!K$11*D6)^2+(E6*'Calibração - Semana 1'!J$11)^2+'Calibração - Semana 1'!M$11^2)</f>
-        <v>0.981165311732271</v>
-      </c>
-      <c r="D16" s="3" t="n">
+        <v>0.000968901885435788</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3" t="n">
         <f aca="false">F6*2.355</f>
         <v>9.8010861</v>
       </c>
-      <c r="E16" s="3" t="n">
+      <c r="I16" s="3" t="n">
         <f aca="false">G6*2.355</f>
         <v>1.97913729</v>
       </c>
-      <c r="F16" s="3" t="n">
-        <f aca="false">D16*'Calibração - Semana 1'!J$11</f>
-        <v>17.6294277791087</v>
-      </c>
-      <c r="G16" s="3" t="n">
-        <f aca="false">SQRT((D16*'Calibração - Semana 1'!K$11)^2+('Calibração - Semana 1'!J$11*E16)^2)</f>
-        <v>3.55991841563484</v>
-      </c>
-      <c r="H16" s="3" t="n">
-        <f aca="false">F16/B16*100</f>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3" t="n">
+        <f aca="false">H16*'Calibração - Semana 1'!J$11</f>
+        <v>0.0174695003808177</v>
+      </c>
+      <c r="L16" s="3" t="n">
+        <f aca="false">SQRT((H16*'Calibração - Semana 1'!K$11)^2+('Calibração - Semana 1'!J$11*I16)^2)</f>
+        <v>0.0035276241918622</v>
+      </c>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3" t="n">
+        <f aca="false">K16/B16*100</f>
         <v>0.314625591922994</v>
       </c>
-      <c r="I16" s="3" t="n">
-        <f aca="false">SQRT((E16/B16)^2+(D16*C16/(B16)^2)^2)*100</f>
-        <v>0.0353209124698743</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O16" s="3" t="n">
+        <f aca="false">SQRT((L16/B16)^2+(K16*D16/(B16)^2)^2)*100</f>
+        <v>0.0635325132179728</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="8" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>108</v>
+        <v>61</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
-        <f aca="false">SUM(B12:B14)/3</f>
-        <v>5498.00045683658</v>
+        <f aca="false">ROUND(SUM(B12:B14)/3,3)</f>
+        <v>5.448</v>
       </c>
       <c r="B21" s="0" t="n">
         <f aca="false">B12-A$21</f>
-        <v>-51.7216473909293</v>
+        <v>-0.0509405878121152</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="n">
         <f aca="false">B13-A$21</f>
-        <v>3.8696502858802</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.00395925448490964</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="n">
         <f aca="false">B14-A$21</f>
-        <v>47.8519971050509</v>
+        <v>0.0475426103450074</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" s="3" t="n">
+        <v>1992</v>
+      </c>
+      <c r="C26" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="D26" s="3" t="n">
+        <v>723</v>
+      </c>
+      <c r="E26" s="3" t="n">
+        <v>88</v>
+      </c>
+      <c r="F26" s="3" t="n">
+        <v>10.91</v>
+      </c>
+      <c r="G26" s="3" t="n">
+        <v>425.56</v>
+      </c>
+      <c r="H26" s="5" t="n">
+        <f aca="false">F26/(2.355*SQRT(D26))</f>
+        <v>0.172291832612826</v>
+      </c>
+      <c r="I26" s="3" t="n">
+        <f aca="false">B26/(SUM($B$26:$B$29))*100</f>
+        <v>3.17131803925939</v>
+      </c>
+      <c r="J26" s="3" t="n">
+        <f aca="false">$L$31*G26+$N$31</f>
+        <v>5.39615216827603</v>
+      </c>
+      <c r="K26" s="3" t="n">
+        <f aca="false">SQRT(POWER($L$31*H26,2)+POWER($M$31*G26,2)+POWER($O31,2))</f>
+        <v>0.000721725505446106</v>
+      </c>
+      <c r="L26" s="3" t="n">
+        <f aca="false">$L$31*F26/2.355</f>
+        <v>0.00825733908824816</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B27" s="3" t="n">
+        <v>10140</v>
+      </c>
+      <c r="C27" s="3" t="n">
+        <v>101</v>
+      </c>
+      <c r="D27" s="3" t="n">
+        <v>4571</v>
+      </c>
+      <c r="E27" s="3" t="n">
+        <v>191</v>
+      </c>
+      <c r="F27" s="3" t="n">
+        <v>9.69</v>
+      </c>
+      <c r="G27" s="3" t="n">
+        <v>456.48</v>
+      </c>
+      <c r="H27" s="5" t="n">
+        <f aca="false">F27/(2.355*SQRT(D27))</f>
+        <v>0.0608593423371097</v>
+      </c>
+      <c r="I27" s="3" t="n">
+        <f aca="false">B27/(SUM($B$26:$B$29))*100</f>
+        <v>16.1431550793626</v>
+      </c>
+      <c r="J27" s="3" t="n">
+        <f aca="false">$L$31*G27+$N$31</f>
+        <v>5.45126411671355</v>
+      </c>
+      <c r="K27" s="3" t="n">
+        <f aca="false">SQRT(POWER($L$31*H27,2)+POWER($M$31*G27,2)+POWER($O32,2))</f>
+        <v>0.000159670736644496</v>
+      </c>
+      <c r="L27" s="3" t="n">
+        <f aca="false">$L$31*F27/2.355</f>
+        <v>0.00733397028094634</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B28" s="3" t="n">
+        <v>50474</v>
+      </c>
+      <c r="C28" s="3" t="n">
+        <v>225</v>
+      </c>
+      <c r="D28" s="3" t="n">
+        <v>44604</v>
+      </c>
+      <c r="E28" s="3" t="n">
+        <v>283</v>
+      </c>
+      <c r="F28" s="3" t="n">
+        <v>10.43</v>
+      </c>
+      <c r="G28" s="3" t="n">
+        <v>480.69</v>
+      </c>
+      <c r="H28" s="5" t="n">
+        <f aca="false">F28/(2.355*SQRT(D28))</f>
+        <v>0.0209703893236165</v>
+      </c>
+      <c r="I28" s="3" t="n">
+        <f aca="false">B28/(SUM($B$26:$B$29))*100</f>
+        <v>80.3559772658526</v>
+      </c>
+      <c r="J28" s="3" t="n">
+        <f aca="false">$L$31*G28+$N$31</f>
+        <v>5.49441613067449</v>
+      </c>
+      <c r="K28" s="3" t="n">
+        <f aca="false">SQRT(POWER($L$31*H28,2)+POWER($M$31*G28,2)+POWER($L33,2))</f>
+        <v>0.000128916830779765</v>
+      </c>
+      <c r="L28" s="3" t="n">
+        <f aca="false">$L$31*F28/2.355</f>
+        <v>0.00789404644275236</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B29" s="3" t="n">
+        <v>207</v>
+      </c>
+      <c r="C29" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D29" s="3" t="n">
+        <v>58</v>
+      </c>
+      <c r="E29" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="F29" s="3" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="G29" s="3" t="n">
+        <v>514.91</v>
+      </c>
+      <c r="H29" s="5" t="n">
+        <f aca="false">F29/(2.355*SQRT(D29))</f>
+        <v>0.18288114640335</v>
+      </c>
+      <c r="I29" s="3" t="n">
+        <f aca="false">B29/(SUM($B$26:$B$29))*100</f>
+        <v>0.329549615525449</v>
+      </c>
+      <c r="J29" s="3" t="n">
+        <f aca="false">$L$31*G29+$N$31</f>
+        <v>5.55541001410049</v>
+      </c>
+      <c r="K29" s="3" t="n">
+        <f aca="false">SQRT(POWER($L$31*H29,2)+POWER($M$31*G29,2)+POWER($L34,2))</f>
+        <v>0.000351741684869734</v>
+      </c>
+      <c r="L29" s="3" t="n">
+        <f aca="false">$L$31*F29/2.355</f>
+        <v>0.00248249974422126</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J31" s="3"/>
+      <c r="L31" s="0" t="n">
+        <v>0.00178240454196374</v>
+      </c>
+      <c r="M31" s="0" t="n">
+        <v>2.56671275865819E-007</v>
+      </c>
+      <c r="N31" s="3" t="n">
+        <v>4.63763209139794</v>
+      </c>
+      <c r="O31" s="0" t="n">
+        <v>0.000643933347797567</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" s="3" t="n">
+        <f aca="false">J2</f>
+        <v>2279.39</v>
+      </c>
+      <c r="C34" s="3" t="n">
+        <f aca="false">K2</f>
+        <v>347.929</v>
+      </c>
+      <c r="D34" s="3" t="n">
+        <f aca="false">D2</f>
+        <v>426.069</v>
+      </c>
+      <c r="E34" s="3" t="n">
+        <f aca="false">E2</f>
+        <v>0.425788</v>
+      </c>
+      <c r="F34" s="3" t="n">
+        <f aca="false">F2</f>
+        <v>6.61776</v>
+      </c>
+      <c r="G34" s="3" t="n">
+        <f aca="false">G2</f>
+        <v>0.452714</v>
+      </c>
+      <c r="H34" s="3" t="n">
+        <f aca="false">B34/(SUM($B$34:$B$38))*100</f>
+        <v>3.59190011467216</v>
+      </c>
+      <c r="I34" s="3" t="n">
+        <f aca="false">$L$31*D34+$N$31</f>
+        <v>5.39705941218789</v>
+      </c>
+      <c r="J34" s="3" t="n">
+        <f aca="false">SQRT(POWER($L$31*E34,2)+POWER($M$31*D34,2)+POWER($N39,2))</f>
+        <v>0.000766765229853062</v>
+      </c>
+      <c r="K34" s="3" t="n">
+        <f aca="false">$L$31*F34</f>
+        <v>0.011795525481626</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B35" s="3" t="n">
+        <f aca="false">J3</f>
+        <v>9988.6</v>
+      </c>
+      <c r="C35" s="3" t="n">
+        <f aca="false">K3</f>
+        <v>138.1</v>
+      </c>
+      <c r="D35" s="3" t="n">
+        <f aca="false">D3</f>
+        <v>456.87</v>
+      </c>
+      <c r="E35" s="3" t="n">
+        <f aca="false">E3</f>
+        <v>0.127022</v>
+      </c>
+      <c r="F35" s="3" t="n">
+        <f aca="false">F3</f>
+        <v>4.7933</v>
+      </c>
+      <c r="G35" s="3" t="n">
+        <f aca="false">G3</f>
+        <v>0.140684</v>
+      </c>
+      <c r="H35" s="3" t="n">
+        <f aca="false">B35/(SUM($B$34:$B$38))*100</f>
+        <v>15.7401995645389</v>
+      </c>
+      <c r="I35" s="3" t="n">
+        <f aca="false">$L$31*D35+$N$31</f>
+        <v>5.45195925448491</v>
+      </c>
+      <c r="J35" s="3" t="n">
+        <f aca="false">SQRT(POWER($L$31*E35,2)+POWER($M$31*D35,2)+POWER($N40,2))</f>
+        <v>0.000254971005506644</v>
+      </c>
+      <c r="K35" s="3" t="n">
+        <f aca="false">$L$31*F35</f>
+        <v>0.0085435996909948</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B36" s="3" t="n">
+        <f aca="false">J4</f>
+        <v>50364.5</v>
+      </c>
+      <c r="C36" s="3" t="n">
+        <f aca="false">K4</f>
+        <v>235.943</v>
+      </c>
+      <c r="D36" s="3" t="n">
+        <f aca="false">D4</f>
+        <v>481.322</v>
+      </c>
+      <c r="E36" s="3" t="n">
+        <f aca="false">E4</f>
+        <v>0.116233</v>
+      </c>
+      <c r="F36" s="3" t="n">
+        <f aca="false">F4</f>
+        <v>3.82073</v>
+      </c>
+      <c r="G36" s="3" t="n">
+        <f aca="false">G4</f>
+        <v>0.0502504</v>
+      </c>
+      <c r="H36" s="3" t="n">
+        <f aca="false">B36/(SUM($B$34:$B$38))*100</f>
+        <v>79.365204429872</v>
+      </c>
+      <c r="I36" s="3" t="n">
+        <f aca="false">$L$31*D36+$N$31</f>
+        <v>5.49554261034501</v>
+      </c>
+      <c r="J36" s="3" t="n">
+        <f aca="false">SQRT(POWER($L$31*E36,2)+POWER($M$31*D36,2)+POWER($N41,2))</f>
+        <v>0.000241212915233045</v>
+      </c>
+      <c r="K36" s="3" t="n">
+        <f aca="false">$L$31*F36</f>
+        <v>0.00681008650561712</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B37" s="3" t="n">
+        <f aca="false">J5</f>
+        <v>603.722</v>
+      </c>
+      <c r="C37" s="3" t="n">
+        <f aca="false">K5</f>
+        <v>162.158</v>
+      </c>
+      <c r="D37" s="3" t="n">
+        <f aca="false">D5</f>
+        <v>497.884</v>
+      </c>
+      <c r="E37" s="3" t="n">
+        <f aca="false">E5</f>
+        <v>0.853364</v>
+      </c>
+      <c r="F37" s="3" t="n">
+        <f aca="false">F5</f>
+        <v>6.61435</v>
+      </c>
+      <c r="G37" s="3" t="n">
+        <f aca="false">G5</f>
+        <v>2.09741</v>
+      </c>
+      <c r="H37" s="3" t="n">
+        <f aca="false">B37/(SUM($B$34:$B$38))*100</f>
+        <v>0.951355020874052</v>
+      </c>
+      <c r="I37" s="3" t="n">
+        <f aca="false">$L$31*D37+$N$31</f>
+        <v>5.52506279436902</v>
+      </c>
+      <c r="J37" s="3" t="n">
+        <f aca="false">SQRT(POWER($L$31*E37,2)+POWER($M$31*D37,2)+POWER($N42,2))</f>
+        <v>0.00152639877270337</v>
+      </c>
+      <c r="K37" s="3" t="n">
+        <f aca="false">$L$31*F37</f>
+        <v>0.0117894474821379</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B38" s="3" t="n">
+        <f aca="false">J6</f>
+        <v>222.958</v>
+      </c>
+      <c r="C38" s="3" t="n">
+        <f aca="false">K6</f>
+        <v>80.401</v>
+      </c>
+      <c r="D38" s="3" t="n">
+        <f aca="false">D6</f>
+        <v>513.2621</v>
+      </c>
+      <c r="E38" s="3" t="n">
+        <f aca="false">E6</f>
+        <v>0.39939</v>
+      </c>
+      <c r="F38" s="3" t="n">
+        <f aca="false">F6</f>
+        <v>4.16182</v>
+      </c>
+      <c r="G38" s="3" t="n">
+        <f aca="false">G6</f>
+        <v>0.840398</v>
+      </c>
+      <c r="H38" s="3" t="n">
+        <f aca="false">B38/(SUM($B$34:$B$38))*100</f>
+        <v>0.351340870042895</v>
+      </c>
+      <c r="I38" s="3" t="n">
+        <f aca="false">$L$31*D38+$N$31</f>
+        <v>5.55247278965579</v>
+      </c>
+      <c r="J38" s="3" t="n">
+        <f aca="false">SQRT(POWER($L$31*E38,2)+POWER($M$31*D38,2)+POWER($N43,2))</f>
+        <v>0.000723961813354298</v>
+      </c>
+      <c r="K38" s="3" t="n">
+        <f aca="false">$L$31*F38</f>
+        <v>0.00741804687083553</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B18:H18"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1879,42 +2463,42 @@
   </sheetPr>
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I32" activeCellId="0" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8542510121458"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.1821862348178"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.1902834008097"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.668016194332"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.1821862348178"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.1902834008097"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="12.1821862348178"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.331983805668"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6194331983806"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.5141700404858"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.6599190283401"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.6194331983806"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.5141700404858"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="15.6194331983806"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="16" t="n">
         <v>0.5</v>
       </c>
@@ -1937,7 +2521,7 @@
         <v>0.0176373587174972</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="16"/>
       <c r="B3" s="3" t="n">
         <v>66</v>
@@ -1949,7 +2533,7 @@
       <c r="E3" s="18"/>
       <c r="F3" s="18"/>
     </row>
-    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="16"/>
       <c r="B4" s="3" t="n">
         <v>67</v>
@@ -1961,7 +2545,7 @@
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
     </row>
-    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="16"/>
       <c r="B5" s="3" t="n">
         <v>68</v>
@@ -1973,7 +2557,7 @@
       <c r="E5" s="18"/>
       <c r="F5" s="18"/>
     </row>
-    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="16" t="n">
         <v>1.5</v>
       </c>
@@ -1996,7 +2580,7 @@
         <v>0.0223896300598591</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="16"/>
       <c r="B7" s="3" t="n">
         <v>198</v>
@@ -2008,7 +2592,7 @@
       <c r="E7" s="19"/>
       <c r="F7" s="18"/>
     </row>
-    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="16"/>
       <c r="B8" s="3" t="n">
         <v>199</v>
@@ -2020,7 +2604,7 @@
       <c r="E8" s="19"/>
       <c r="F8" s="18"/>
     </row>
-    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="16"/>
       <c r="B9" s="3" t="n">
         <v>200</v>
@@ -2032,7 +2616,7 @@
       <c r="E9" s="19"/>
       <c r="F9" s="18"/>
     </row>
-    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="20" t="n">
         <v>2.5</v>
       </c>
@@ -2055,7 +2639,7 @@
         <v>0.0165612617904679</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="20"/>
       <c r="B11" s="3" t="n">
         <v>331</v>
@@ -2067,7 +2651,7 @@
       <c r="E11" s="18"/>
       <c r="F11" s="21"/>
     </row>
-    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="20"/>
       <c r="B12" s="3" t="n">
         <v>332</v>
@@ -2079,7 +2663,7 @@
       <c r="E12" s="18"/>
       <c r="F12" s="21"/>
     </row>
-    <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="16" t="n">
         <v>3.5</v>
       </c>
@@ -2102,7 +2686,7 @@
         <v>0.0172254613736232</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="16"/>
       <c r="B14" s="3" t="n">
         <v>464</v>
@@ -2114,7 +2698,7 @@
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
     </row>
-    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="16"/>
       <c r="B15" s="3" t="n">
         <v>465</v>
@@ -2126,7 +2710,7 @@
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
     </row>
-    <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="16"/>
       <c r="B16" s="3" t="n">
         <v>466</v>
@@ -2138,7 +2722,7 @@
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
     </row>
-    <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="16" t="n">
         <v>4.5</v>
       </c>
@@ -2161,7 +2745,7 @@
         <v>0.0162394663929536</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="16"/>
       <c r="B18" s="3" t="n">
         <v>599</v>
@@ -2173,7 +2757,7 @@
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
     </row>
-    <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="16"/>
       <c r="B19" s="3" t="n">
         <v>600</v>
@@ -2185,7 +2769,7 @@
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
     </row>
-    <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="16" t="n">
         <v>5.5</v>
       </c>
@@ -2208,7 +2792,7 @@
         <v>0.0175198700519686</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="16"/>
       <c r="B21" s="3" t="n">
         <v>734</v>
@@ -2220,7 +2804,7 @@
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
     </row>
-    <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="16"/>
       <c r="B22" s="3" t="n">
         <v>735</v>
@@ -2232,7 +2816,7 @@
       <c r="E22" s="18"/>
       <c r="F22" s="18"/>
     </row>
-    <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="16"/>
       <c r="B23" s="3" t="n">
         <v>736</v>
@@ -2244,7 +2828,7 @@
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
     </row>
-    <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="16" t="n">
         <v>6.5</v>
       </c>
@@ -2267,7 +2851,7 @@
         <v>0.0173532387819866</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="16"/>
       <c r="B25" s="3" t="n">
         <v>870</v>
@@ -2279,7 +2863,7 @@
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
     </row>
-    <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="16"/>
       <c r="B26" s="3" t="n">
         <v>871</v>
@@ -2291,7 +2875,7 @@
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
     </row>
-    <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="16"/>
       <c r="B27" s="3" t="n">
         <v>872</v>
@@ -2303,7 +2887,7 @@
       <c r="E27" s="18"/>
       <c r="F27" s="18"/>
     </row>
-    <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D30" s="7"/>
       <c r="H30" s="8" t="s">
         <v>23</v>
@@ -2312,7 +2896,7 @@
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
     </row>
-    <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="s">
         <v>24</v>
       </c>
@@ -2338,7 +2922,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2376,7 +2960,7 @@
         <v>0.111699133162892</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="n">
         <v>3.2</v>
       </c>
@@ -2392,7 +2976,7 @@
       </c>
       <c r="H33" s="7"/>
     </row>
-    <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="8" t="s">
         <v>34</v>
       </c>
@@ -2400,7 +2984,7 @@
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
@@ -2414,7 +2998,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="22" t="n">
         <v>7.45646</v>
       </c>
@@ -2477,692 +3061,1478 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M8" activeCellId="0" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.0485829959514"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.1821862348178"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.5182186234818"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="12.1821862348178"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.5182186234818"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.1821862348178"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.9028340080972"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="12.1821862348178"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.4251012145749"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="12.1821862348178"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3198380566802"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.1457489878543"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.1457489878543"/>
+    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.4696356275304"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.8744939271255"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="15.2186234817814"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="13.9676113360324"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="16.9514170040486"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="E1" s="17" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="I1" s="17" t="s">
+      <c r="G1" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="14" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="L1" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="3" t="n">
         <v>9.5</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="n">
         <v>150</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="3" t="n">
         <v>260</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="3" t="n">
         <v>252</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2" s="3" t="n">
         <v>10.37</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2" s="3" t="n">
         <v>558.32</v>
       </c>
-      <c r="K2" s="24" t="n">
+      <c r="K2" s="5" t="n">
         <f aca="false">I2/(2.355*SQRT(G2))</f>
         <v>0.277387939497925</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="P2" s="24" t="n">
+        <v>5.305</v>
+      </c>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="3" t="n">
         <v>13.5</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="n">
         <v>364</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="3" t="n">
         <v>306</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3" s="3" t="n">
         <v>284</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3" s="3" t="n">
         <v>10.69</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3" s="3" t="n">
         <v>503.78</v>
       </c>
-      <c r="K3" s="24" t="n">
+      <c r="K3" s="5" t="n">
         <f aca="false">I3/(2.355*SQRT(G3))</f>
         <v>0.269356601403233</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="3" t="n">
         <v>17.5</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="n">
         <v>509</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="3" t="n">
         <v>305</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4" s="3" t="n">
         <v>294</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4" s="3" t="n">
         <v>13.19</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4" s="3" t="n">
         <v>445.72</v>
       </c>
-      <c r="K4" s="24" t="n">
+      <c r="K4" s="5" t="n">
         <f aca="false">I4/(2.355*SQRT(G4))</f>
         <v>0.32664816203933</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="3" t="n">
         <v>21.5</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="n">
         <v>768</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="3" t="n">
         <v>287</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5" s="3" t="n">
         <v>287</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5" s="3" t="n">
         <v>11.33</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5" s="3" t="n">
         <v>382.09</v>
       </c>
-      <c r="K5" s="24" t="n">
+      <c r="K5" s="5" t="n">
         <f aca="false">I5/(2.355*SQRT(G5))</f>
         <v>0.283986731975534</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q5" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="3" t="n">
         <v>25.5</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="n">
         <v>1081</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="3" t="n">
         <v>313</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3" t="n">
         <v>15.23</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6" s="3" t="n">
         <v>310.23</v>
       </c>
-      <c r="K6" s="24" t="e">
-        <f aca="false">I6/(2.355*SQRT(G6))</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="K6" s="5"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" s="8" t="n">
+        <v>7.63866696415143</v>
+      </c>
+      <c r="Q6" s="27" t="n">
+        <v>0.00171064190739567</v>
+      </c>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="3" t="n">
         <v>29.5</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="n">
         <v>1147</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="3" t="n">
         <v>229</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7" s="3" t="n">
         <v>212</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I7" s="3" t="n">
         <v>10.53</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J7" s="3" t="n">
         <v>224.46</v>
       </c>
-      <c r="K7" s="24" t="n">
+      <c r="K7" s="5" t="n">
         <f aca="false">I7/(2.355*SQRT(G7))</f>
         <v>0.307092725770636</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="29" t="n">
+        <v>24.0839810035483</v>
+      </c>
+      <c r="Q7" s="30" t="n">
+        <v>0.106475487025031</v>
+      </c>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="3" t="n">
         <v>33.5</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="n">
         <v>1865</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="3" t="n">
         <v>300</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8" s="3" t="n">
         <v>277</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8" s="3" t="n">
         <v>24</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="I8" s="3" t="n">
         <v>22.46</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="J8" s="3" t="n">
         <v>115.44</v>
       </c>
-      <c r="K8" s="24" t="n">
+      <c r="K8" s="5" t="n">
         <f aca="false">I8/(2.355*SQRT(G8))</f>
         <v>0.57303210667144</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-    </row>
-    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="B11" s="27" t="s">
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="32" t="n">
+        <v>1.2041</v>
+      </c>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="33"/>
+      <c r="B12" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="E11" s="29" t="s">
+      <c r="D12" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="30" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="27" t="n">
+      <c r="G12" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="35" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B13" s="8" t="n">
         <v>0.132</v>
       </c>
-      <c r="B12" s="27" t="n">
+      <c r="C13" s="8" t="n">
         <v>0.123</v>
       </c>
-      <c r="C12" s="28" t="n">
+      <c r="D13" s="35" t="n">
+        <f aca="false">0.2*B13+0.8*C13</f>
         <v>0.1248</v>
       </c>
-      <c r="D12" s="29" t="n">
+      <c r="E13" s="3" t="n">
         <v>0.53</v>
       </c>
-      <c r="E12" s="29" t="n">
+      <c r="F13" s="3" t="n">
         <v>0.564</v>
       </c>
-      <c r="F12" s="29" t="n">
+      <c r="G13" s="3" t="n">
+        <f aca="false">0.2*E13+0.8*F13</f>
         <v>0.5572</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="27" t="n">
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="K13" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="L13" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="M13" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="N13" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="O13" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="P13" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q13" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="R13" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="S13" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="35" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="B14" s="8" t="n">
         <v>0.181</v>
       </c>
-      <c r="B13" s="27" t="n">
+      <c r="C14" s="8" t="n">
         <v>0.17</v>
       </c>
-      <c r="C13" s="28" t="n">
+      <c r="D14" s="35" t="n">
+        <f aca="false">0.2*B14+0.8*C14</f>
         <v>0.1722</v>
       </c>
-      <c r="D13" s="29" t="n">
+      <c r="E14" s="3" t="n">
         <v>0.644</v>
       </c>
-      <c r="E13" s="29" t="n">
+      <c r="F14" s="3" t="n">
         <v>0.684</v>
       </c>
-      <c r="F13" s="29" t="n">
+      <c r="G14" s="3" t="n">
+        <f aca="false">0.2*E14+0.8*F14</f>
         <v>0.676</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="27" t="n">
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="K14" s="8" t="n">
+        <v>558.32</v>
+      </c>
+      <c r="L14" s="8" t="n">
+        <v>0.277387939497925</v>
+      </c>
+      <c r="M14" s="8" t="n">
+        <f aca="false">K14*$P$6+$P$7</f>
+        <v>4288.90452042858</v>
+      </c>
+      <c r="N14" s="8" t="n">
+        <f aca="false">$Q$6*K14+L14*$P$6+$Q$7</f>
+        <v>3.18043516645902</v>
+      </c>
+      <c r="O14" s="8" t="n">
+        <f aca="false">$P$2-M14/1000</f>
+        <v>1.01609547957142</v>
+      </c>
+      <c r="P14" s="8" t="n">
+        <f aca="false">N14/1000</f>
+        <v>0.00318043516645902</v>
+      </c>
+      <c r="Q14" s="41" t="n">
+        <v>0.922731</v>
+      </c>
+      <c r="R14" s="41" t="n">
+        <v>0.935472</v>
+      </c>
+      <c r="S14" s="42" t="n">
+        <v>0.920353</v>
+      </c>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="35" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="B15" s="8" t="n">
         <v>0.247</v>
       </c>
-      <c r="B14" s="27" t="n">
+      <c r="C15" s="8" t="n">
         <v>0.232</v>
       </c>
-      <c r="C14" s="28" t="n">
+      <c r="D15" s="35" t="n">
+        <f aca="false">0.2*B15+0.8*C15</f>
         <v>0.235</v>
       </c>
-      <c r="D14" s="29" t="n">
+      <c r="E15" s="3" t="n">
         <v>0.777</v>
       </c>
-      <c r="E14" s="29" t="n">
+      <c r="F15" s="3" t="n">
         <v>0.817</v>
       </c>
-      <c r="F14" s="29" t="n">
+      <c r="G15" s="3" t="n">
+        <f aca="false">0.2*E15+0.8*F15</f>
         <v>0.809</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="27" t="n">
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="26" t="n">
+        <v>3</v>
+      </c>
+      <c r="K15" s="8" t="n">
+        <v>503.78</v>
+      </c>
+      <c r="L15" s="8" t="n">
+        <v>0.269356601403233</v>
+      </c>
+      <c r="M15" s="8" t="n">
+        <f aca="false">K15*$P$6+$P$7</f>
+        <v>3872.29162420376</v>
+      </c>
+      <c r="N15" s="8" t="n">
+        <f aca="false">$Q$6*K15+L15*$P$6+$Q$7</f>
+        <v>3.0257880398478</v>
+      </c>
+      <c r="O15" s="8" t="n">
+        <f aca="false">$P$2-M15/1000</f>
+        <v>1.43270837579624</v>
+      </c>
+      <c r="P15" s="8" t="n">
+        <f aca="false">N15/1000</f>
+        <v>0.0030257880398478</v>
+      </c>
+      <c r="Q15" s="41" t="n">
+        <v>1.36114</v>
+      </c>
+      <c r="R15" s="41" t="n">
+        <v>1.39409</v>
+      </c>
+      <c r="S15" s="42" t="n">
+        <v>1.35758</v>
+      </c>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="35" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="B16" s="8" t="n">
         <v>0.33</v>
       </c>
-      <c r="B15" s="27" t="n">
+      <c r="C16" s="8" t="n">
         <v>0.312</v>
       </c>
-      <c r="C15" s="28" t="n">
+      <c r="D16" s="35" t="n">
+        <f aca="false">0.2*B16+0.8*C16</f>
         <v>0.3156</v>
       </c>
-      <c r="D15" s="29" t="n">
+      <c r="E16" s="3" t="n">
         <v>0.93</v>
       </c>
-      <c r="E15" s="29" t="n">
+      <c r="F16" s="3" t="n">
         <v>0.956</v>
       </c>
-      <c r="F15" s="29" t="n">
+      <c r="G16" s="3" t="n">
+        <f aca="false">0.2*E16+0.8*F16</f>
         <v>0.9508</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="27" t="n">
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="K16" s="8" t="n">
+        <v>445.72</v>
+      </c>
+      <c r="L16" s="8" t="n">
+        <v>0.32664816203933</v>
+      </c>
+      <c r="M16" s="8" t="n">
+        <f aca="false">K16*$P$6+$P$7</f>
+        <v>3428.79062026512</v>
+      </c>
+      <c r="N16" s="8" t="n">
+        <f aca="false">$Q$6*K16+L16*$P$6+$Q$7</f>
+        <v>3.36409932226004</v>
+      </c>
+      <c r="O16" s="8" t="n">
+        <f aca="false">$P$2-M16/1000</f>
+        <v>1.87620937973488</v>
+      </c>
+      <c r="P16" s="8" t="n">
+        <f aca="false">N16/1000</f>
+        <v>0.00336409932226004</v>
+      </c>
+      <c r="Q16" s="41" t="n">
+        <v>1.84399</v>
+      </c>
+      <c r="R16" s="41" t="n">
+        <v>1.92133</v>
+      </c>
+      <c r="S16" s="42" t="n">
+        <v>1.84083</v>
+      </c>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="35" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="B17" s="8" t="n">
         <v>0.513</v>
       </c>
-      <c r="B16" s="27" t="n">
+      <c r="C17" s="8" t="n">
         <v>0.49</v>
       </c>
-      <c r="C16" s="28" t="n">
+      <c r="D17" s="35" t="n">
+        <f aca="false">0.2*B17+0.8*C17</f>
         <v>0.4946</v>
       </c>
-      <c r="D16" s="29" t="n">
+      <c r="E17" s="3" t="n">
         <v>1.262</v>
       </c>
-      <c r="E16" s="29" t="n">
+      <c r="F17" s="3" t="n">
         <v>1.303</v>
       </c>
-      <c r="F16" s="29" t="n">
+      <c r="G17" s="3" t="n">
+        <f aca="false">0.2*E17+0.8*F17</f>
         <v>1.2948</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="27" t="n">
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="26" t="n">
+        <v>5</v>
+      </c>
+      <c r="K17" s="8" t="n">
+        <v>382.09</v>
+      </c>
+      <c r="L17" s="8" t="n">
+        <v>0.283986731975534</v>
+      </c>
+      <c r="M17" s="8" t="n">
+        <f aca="false">K17*$P$6+$P$7</f>
+        <v>2942.74224133617</v>
+      </c>
+      <c r="N17" s="8" t="n">
+        <f aca="false">$Q$6*K17+L17*$P$6+$Q$7</f>
+        <v>2.92937472122068</v>
+      </c>
+      <c r="O17" s="8" t="n">
+        <f aca="false">$P$2-M17/1000</f>
+        <v>2.36225775866383</v>
+      </c>
+      <c r="P17" s="8" t="n">
+        <f aca="false">N17/1000</f>
+        <v>0.00292937472122068</v>
+      </c>
+      <c r="Q17" s="41" t="n">
+        <v>2.39442</v>
+      </c>
+      <c r="R17" s="41" t="n">
+        <v>2.55829</v>
+      </c>
+      <c r="S17" s="42" t="n">
+        <v>2.39209</v>
+      </c>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B18" s="8" t="n">
         <v>0.588</v>
       </c>
-      <c r="B17" s="27" t="n">
+      <c r="C18" s="8" t="n">
         <v>0.563</v>
       </c>
-      <c r="C17" s="28" t="n">
+      <c r="D18" s="35" t="n">
+        <f aca="false">0.2*B18+0.8*C18</f>
         <v>0.568</v>
       </c>
-      <c r="D17" s="29" t="n">
+      <c r="E18" s="3" t="n">
         <v>1.389</v>
       </c>
-      <c r="E17" s="29" t="n">
+      <c r="F18" s="3" t="n">
         <v>1.442</v>
       </c>
-      <c r="F17" s="29" t="n">
+      <c r="G18" s="3" t="n">
+        <f aca="false">0.2*E18+0.8*F18</f>
         <v>1.4314</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="27" t="n">
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="26" t="n">
+        <v>6</v>
+      </c>
+      <c r="K18" s="8" t="n">
+        <v>310.23</v>
+      </c>
+      <c r="L18" s="8" t="n">
+        <v>0.283986731975534</v>
+      </c>
+      <c r="M18" s="8" t="n">
+        <f aca="false">K18*$P$6+$P$7</f>
+        <v>2393.82763329225</v>
+      </c>
+      <c r="N18" s="8" t="n">
+        <f aca="false">$Q$6*K18+L18*$P$6+$Q$7</f>
+        <v>2.80644799375523</v>
+      </c>
+      <c r="O18" s="8" t="n">
+        <f aca="false">$P$2-M18/1000</f>
+        <v>2.91117236670775</v>
+      </c>
+      <c r="P18" s="8" t="n">
+        <f aca="false">N18/1000</f>
+        <v>0.00280644799375523</v>
+      </c>
+      <c r="Q18" s="41" t="n">
+        <v>3.04923</v>
+      </c>
+      <c r="R18" s="41" t="n">
+        <v>3.37167</v>
+      </c>
+      <c r="S18" s="42" t="n">
+        <v>3.04835</v>
+      </c>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="35" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="B19" s="8" t="n">
         <v>0.684</v>
       </c>
-      <c r="B18" s="27" t="n">
+      <c r="C19" s="8" t="n">
         <v>0.654</v>
       </c>
-      <c r="C18" s="28" t="n">
+      <c r="D19" s="35" t="n">
+        <f aca="false">0.2*B19+0.8*C19</f>
         <v>0.66</v>
       </c>
-      <c r="D18" s="29" t="n">
+      <c r="E19" s="3" t="n">
         <v>1.546</v>
       </c>
-      <c r="E18" s="29" t="n">
+      <c r="F19" s="3" t="n">
         <v>1.604</v>
       </c>
-      <c r="F18" s="29" t="n">
+      <c r="G19" s="3" t="n">
+        <f aca="false">0.2*E19+0.8*F19</f>
         <v>1.5924</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="27" t="n">
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="26" t="n">
+        <v>7</v>
+      </c>
+      <c r="K19" s="8" t="n">
+        <v>224.46</v>
+      </c>
+      <c r="L19" s="8" t="n">
+        <v>0.307092725770636</v>
+      </c>
+      <c r="M19" s="8" t="n">
+        <f aca="false">K19*$P$6+$P$7</f>
+        <v>1738.65916777698</v>
+      </c>
+      <c r="N19" s="8" t="n">
+        <f aca="false">$Q$6*K19+L19*$P$6+$Q$7</f>
+        <v>2.83622522883443</v>
+      </c>
+      <c r="O19" s="8" t="n">
+        <f aca="false">$P$2-M19/1000</f>
+        <v>3.56634083222302</v>
+      </c>
+      <c r="P19" s="8" t="n">
+        <f aca="false">N19/1000</f>
+        <v>0.00283622522883443</v>
+      </c>
+      <c r="Q19" s="41" t="n">
+        <v>3.84866</v>
+      </c>
+      <c r="R19" s="41" t="n">
+        <v>4.38251</v>
+      </c>
+      <c r="S19" s="42" t="n">
+        <v>3.8504</v>
+      </c>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="35" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B20" s="8" t="n">
         <v>0.783</v>
       </c>
-      <c r="B19" s="27" t="n">
+      <c r="C20" s="8" t="n">
         <v>0.75</v>
       </c>
-      <c r="C19" s="28" t="n">
+      <c r="D20" s="35" t="n">
+        <f aca="false">0.2*B20+0.8*C20</f>
         <v>0.7566</v>
       </c>
-      <c r="D19" s="29" t="n">
+      <c r="E20" s="3" t="n">
         <v>1.665</v>
       </c>
-      <c r="E19" s="29" t="n">
+      <c r="F20" s="3" t="n">
         <v>1.734</v>
       </c>
-      <c r="F19" s="29" t="n">
+      <c r="G20" s="3" t="n">
+        <f aca="false">0.2*E20+0.8*F20</f>
         <v>1.7202</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="27" t="n">
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="28" t="n">
+        <v>8</v>
+      </c>
+      <c r="K20" s="29" t="n">
+        <v>115.44</v>
+      </c>
+      <c r="L20" s="29" t="n">
+        <v>0.573032106671441</v>
+      </c>
+      <c r="M20" s="29" t="n">
+        <f aca="false">K20*$P$6+$P$7</f>
+        <v>905.89169534519</v>
+      </c>
+      <c r="N20" s="29" t="n">
+        <f aca="false">$Q$6*K20+L20*$P$6+$Q$7</f>
+        <v>4.68115341144402</v>
+      </c>
+      <c r="O20" s="29" t="n">
+        <f aca="false">$P$2-M20/1000</f>
+        <v>4.39910830465481</v>
+      </c>
+      <c r="P20" s="29" t="n">
+        <f aca="false">N20/1000</f>
+        <v>0.00468115341144402</v>
+      </c>
+      <c r="Q20" s="43" t="n">
+        <v>4.69504</v>
+      </c>
+      <c r="R20" s="43" t="n">
+        <v>5.08737</v>
+      </c>
+      <c r="S20" s="44" t="n">
+        <v>4.69917</v>
+      </c>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" s="8" t="n">
         <v>0.9</v>
       </c>
-      <c r="B20" s="27" t="n">
+      <c r="C21" s="8" t="n">
         <v>0.863</v>
       </c>
-      <c r="C20" s="28" t="n">
+      <c r="D21" s="35" t="n">
+        <f aca="false">0.2*B21+0.8*C21</f>
         <v>0.8704</v>
       </c>
-      <c r="D20" s="29" t="n">
+      <c r="E21" s="3" t="n">
         <v>1.748</v>
       </c>
-      <c r="E20" s="29" t="n">
+      <c r="F21" s="3" t="n">
         <v>1.816</v>
       </c>
-      <c r="F20" s="29" t="n">
+      <c r="G21" s="3" t="n">
+        <f aca="false">0.2*E21+0.8*F21</f>
         <v>1.8024</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="27" t="n">
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="35" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="B22" s="8" t="n">
         <v>1.246</v>
       </c>
-      <c r="B21" s="27" t="n">
+      <c r="C22" s="8" t="n">
         <v>1.193</v>
       </c>
-      <c r="C21" s="28" t="n">
+      <c r="D22" s="35" t="n">
+        <f aca="false">0.2*B22+0.8*C22</f>
         <v>1.2036</v>
       </c>
-      <c r="D21" s="29" t="n">
+      <c r="E22" s="3" t="n">
         <v>1.688</v>
       </c>
-      <c r="E21" s="29" t="n">
+      <c r="F22" s="3" t="n">
         <v>1.776</v>
       </c>
-      <c r="F21" s="29" t="n">
+      <c r="G22" s="3" t="n">
+        <f aca="false">0.2*E22+0.8*F22</f>
         <v>1.7584</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="27" t="n">
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="R22" s="45"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="35" t="n">
+        <v>2</v>
+      </c>
+      <c r="B23" s="8" t="n">
         <v>1.493</v>
       </c>
-      <c r="B22" s="27" t="n">
+      <c r="C23" s="8" t="n">
         <v>1.428</v>
       </c>
-      <c r="C22" s="28" t="n">
+      <c r="D23" s="35" t="n">
+        <f aca="false">0.2*B23+0.8*C23</f>
         <v>1.441</v>
       </c>
-      <c r="D22" s="29" t="n">
+      <c r="E23" s="3" t="n">
         <v>1.561</v>
       </c>
-      <c r="E22" s="29" t="n">
+      <c r="F23" s="3" t="n">
         <v>1.64</v>
       </c>
-      <c r="F22" s="29" t="n">
+      <c r="G23" s="3" t="n">
+        <f aca="false">0.2*E23+0.8*F23</f>
         <v>1.6242</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="27" t="n">
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="35" t="n">
+        <v>2.401</v>
+      </c>
+      <c r="B24" s="8" t="n">
         <v>1.765</v>
       </c>
-      <c r="B23" s="27" t="n">
+      <c r="C24" s="8" t="n">
         <v>1.687</v>
       </c>
-      <c r="C23" s="28" t="n">
+      <c r="D24" s="35" t="n">
+        <f aca="false">0.2*B24+0.8*C24</f>
         <v>1.7026</v>
       </c>
-      <c r="D23" s="29" t="n">
+      <c r="E24" s="3" t="n">
         <v>1.385</v>
       </c>
-      <c r="E23" s="29" t="n">
+      <c r="F24" s="3" t="n">
         <v>1.458</v>
       </c>
-      <c r="F23" s="29" t="n">
+      <c r="G24" s="3" t="n">
+        <f aca="false">0.2*E24+0.8*F24</f>
         <v>1.4434</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="27" t="n">
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="35" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="B25" s="8" t="n">
         <v>2.073</v>
       </c>
-      <c r="B24" s="27" t="n">
+      <c r="C25" s="8" t="n">
         <v>1.979</v>
       </c>
-      <c r="C24" s="28" t="n">
+      <c r="D25" s="35" t="n">
+        <f aca="false">0.2*B25+0.8*C25</f>
         <v>1.9978</v>
       </c>
-      <c r="D24" s="29" t="n">
+      <c r="E25" s="3" t="n">
         <v>1.227</v>
       </c>
-      <c r="E24" s="29" t="n">
+      <c r="F25" s="3" t="n">
         <v>1.292</v>
       </c>
-      <c r="F24" s="29" t="n">
+      <c r="G25" s="3" t="n">
+        <f aca="false">0.2*E25+0.8*F25</f>
         <v>1.279</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="27" t="n">
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="35" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="B26" s="8" t="n">
         <v>2.418</v>
       </c>
-      <c r="B25" s="27" t="n">
+      <c r="C26" s="8" t="n">
         <v>2.308</v>
       </c>
-      <c r="C25" s="28" t="n">
+      <c r="D26" s="35" t="n">
+        <f aca="false">0.2*B26+0.8*C26</f>
         <v>2.33</v>
       </c>
-      <c r="D25" s="29" t="n">
+      <c r="E26" s="3" t="n">
         <v>1.098</v>
       </c>
-      <c r="E25" s="29" t="n">
+      <c r="F26" s="3" t="n">
         <v>1.152</v>
       </c>
-      <c r="F25" s="29" t="n">
+      <c r="G26" s="3" t="n">
+        <f aca="false">0.2*E26+0.8*F26</f>
         <v>1.1412</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="27" t="n">
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="35" t="n">
+        <v>4</v>
+      </c>
+      <c r="B27" s="8" t="n">
         <v>3.227</v>
       </c>
-      <c r="B26" s="27" t="n">
+      <c r="C27" s="8" t="n">
         <v>3.079</v>
       </c>
-      <c r="C26" s="28" t="n">
+      <c r="D27" s="35" t="n">
+        <f aca="false">0.2*B27+0.8*C27</f>
         <v>3.1086</v>
       </c>
-      <c r="D26" s="29" t="n">
+      <c r="E27" s="3" t="n">
         <v>0.9</v>
       </c>
-      <c r="E26" s="29" t="n">
+      <c r="F27" s="3" t="n">
         <v>0.949</v>
       </c>
-      <c r="F26" s="29" t="n">
+      <c r="G27" s="3" t="n">
+        <f aca="false">0.2*E27+0.8*F27</f>
         <v>0.9392</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="27" t="n">
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="35" t="n">
+        <v>5</v>
+      </c>
+      <c r="B28" s="8" t="n">
         <v>4.444</v>
       </c>
-      <c r="B27" s="27" t="n">
+      <c r="C28" s="8" t="n">
         <v>4.236</v>
       </c>
-      <c r="C27" s="28" t="n">
+      <c r="D28" s="35" t="n">
+        <f aca="false">0.2*B28+0.8*C28</f>
         <v>4.2776</v>
       </c>
-      <c r="D27" s="29" t="n">
+      <c r="E28" s="3" t="n">
         <v>0.756</v>
       </c>
-      <c r="E27" s="29" t="n">
+      <c r="F28" s="3" t="n">
         <v>0.792</v>
       </c>
-      <c r="F27" s="29" t="n">
+      <c r="G28" s="3" t="n">
+        <f aca="false">0.2*E28+0.8*F28</f>
         <v>0.7848</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="27" t="n">
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="35" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="B29" s="8" t="n">
         <v>6.487</v>
       </c>
-      <c r="B28" s="27" t="n">
+      <c r="C29" s="8" t="n">
         <v>6.189</v>
       </c>
-      <c r="C28" s="28" t="n">
+      <c r="D29" s="35" t="n">
+        <f aca="false">0.2*B29+0.8*C29</f>
         <v>6.2486</v>
       </c>
-      <c r="D28" s="29" t="n">
+      <c r="E29" s="3" t="n">
         <v>0.626</v>
       </c>
-      <c r="E28" s="29" t="n">
+      <c r="F29" s="3" t="n">
         <v>0.655</v>
       </c>
-      <c r="F28" s="29" t="n">
+      <c r="G29" s="3" t="n">
+        <f aca="false">0.2*E29+0.8*F29</f>
         <v>0.6492</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="27" t="n">
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="35" t="n">
+        <v>8</v>
+      </c>
+      <c r="B30" s="8" t="n">
         <v>9.277</v>
       </c>
-      <c r="B29" s="27" t="n">
+      <c r="C30" s="8" t="n">
         <v>8.851</v>
       </c>
-      <c r="C29" s="28" t="n">
+      <c r="D30" s="35" t="n">
+        <f aca="false">0.2*B30+0.8*C30</f>
         <v>8.9362</v>
       </c>
-      <c r="D29" s="29" t="n">
+      <c r="E30" s="3" t="n">
         <v>0.53</v>
       </c>
-      <c r="E29" s="29" t="n">
+      <c r="F30" s="3" t="n">
         <v>0.556</v>
       </c>
-      <c r="F29" s="29" t="n">
+      <c r="G30" s="3" t="n">
+        <f aca="false">0.2*E30+0.8*F30</f>
         <v>0.5508</v>
       </c>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:F10"/>
+  <mergeCells count="7">
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="Q22:S22"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <tableParts>
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>